--- a/OI/OI Data.xlsx
+++ b/OI/OI Data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Corn" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HRW" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Soybean" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Soymeal" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Soyoil" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SRW" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Corn" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="HRW" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Soybean" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Soymeal" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Soyoil" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SRW" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -56,7 +56,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -450,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +628,59 @@
       </c>
       <c r="M3" t="n">
         <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-2,014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-4,468</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+467</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>+707</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+1,237</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>-295</v>
+      </c>
+      <c r="H4" t="n">
+        <v>185</v>
+      </c>
+      <c r="I4" t="n">
+        <v>91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -642,7 +694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,6 +842,49 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-2,437</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+3,112</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-408</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>627</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,7 +899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +1078,59 @@
       </c>
       <c r="M3" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-962</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>318</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+7,281</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>+2,339</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-350</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>+2,799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>421</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>27</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-358</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -996,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,8 +1245,10 @@
           <t>-2,376</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>538</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v>166</v>
@@ -1150,8 +1300,10 @@
           <t>+677</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>550</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v>409</v>
@@ -1175,6 +1327,61 @@
       </c>
       <c r="M3" t="n">
         <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-2,564</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+709</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-617</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>+1,231</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+1,085</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>491</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>+41</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>218</v>
+      </c>
+      <c r="K4" t="n">
+        <v>130</v>
+      </c>
+      <c r="L4" t="n">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,6 +1574,59 @@
       </c>
       <c r="M3" t="n">
         <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-2,014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-4,468</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+467</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>+707</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+1,237</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>-295</v>
+      </c>
+      <c r="H4" t="n">
+        <v>185</v>
+      </c>
+      <c r="I4" t="n">
+        <v>91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,6 +1791,49 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31 Jul 2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-2,437</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>+3,112</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-408</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>627</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/OI/OI Data.xlsx
+++ b/OI/OI Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hertshtengroup.com\Users\India\Data\anmol.chopra\Documents\FF Codes\Futures-First\OI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF514EB-D292-4213-8A6B-7120B0A196BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43905A3D-295F-45AA-BD04-411F487001A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="17880" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Corn" sheetId="2" r:id="rId2"/>
     <sheet name="HRW" sheetId="3" r:id="rId3"/>
     <sheet name="Soybean" sheetId="4" r:id="rId4"/>
@@ -21,107 +21,576 @@
     <sheet name="Soyoil" sheetId="6" r:id="rId6"/>
     <sheet name="SRW" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="184">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>SEP 2024</t>
+  </si>
+  <si>
+    <t>DEC 2024</t>
+  </si>
+  <si>
+    <t>MAR 2025</t>
+  </si>
+  <si>
+    <t>MAY 2025</t>
+  </si>
+  <si>
+    <t>JUL 2025</t>
+  </si>
+  <si>
+    <t>SEP 2025</t>
+  </si>
+  <si>
+    <t>DEC 2025</t>
+  </si>
+  <si>
+    <t>MAR 2026</t>
+  </si>
+  <si>
+    <t>MAY 2026</t>
+  </si>
+  <si>
+    <t>JUL 2026</t>
+  </si>
+  <si>
+    <t>SEP 2026</t>
+  </si>
+  <si>
+    <t>DEC 2026</t>
+  </si>
+  <si>
+    <t>Market Open Interest</t>
+  </si>
+  <si>
+    <t>Change in OI</t>
+  </si>
+  <si>
+    <t>07 Aug 2024</t>
+  </si>
+  <si>
+    <t>-28,970</t>
+  </si>
+  <si>
+    <t>+8,561</t>
+  </si>
+  <si>
+    <t>+6,719</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>+1,692</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>06 Aug 2024</t>
+  </si>
+  <si>
+    <t>-7,441</t>
+  </si>
+  <si>
+    <t>-1,495</t>
+  </si>
+  <si>
+    <t>+1,006</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>+518</t>
+  </si>
+  <si>
+    <t>+1,092</t>
+  </si>
+  <si>
+    <t>05 Aug 2024</t>
+  </si>
+  <si>
+    <t>-17,766</t>
+  </si>
+  <si>
+    <t>-5,775</t>
+  </si>
+  <si>
+    <t>-257</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>+953</t>
+  </si>
+  <si>
+    <t>+1,538</t>
+  </si>
+  <si>
+    <t>02 Aug 2024</t>
+  </si>
+  <si>
+    <t>-3,572</t>
+  </si>
+  <si>
+    <t>+1,925</t>
+  </si>
+  <si>
+    <t>+5,872</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>+1,317</t>
+  </si>
+  <si>
+    <t>+2,238</t>
+  </si>
+  <si>
+    <t>+1,362</t>
+  </si>
+  <si>
+    <t>01 Aug 2024</t>
+  </si>
+  <si>
+    <t>-6,835</t>
+  </si>
+  <si>
+    <t>-1,211</t>
+  </si>
+  <si>
+    <t>+1,264</t>
+  </si>
+  <si>
+    <t>+1,291</t>
+  </si>
+  <si>
+    <t>+1,900</t>
+  </si>
+  <si>
+    <t>+1,035</t>
+  </si>
+  <si>
+    <t>+937</t>
+  </si>
+  <si>
+    <t>-11,508</t>
+  </si>
+  <si>
+    <t>+7,211</t>
+  </si>
+  <si>
+    <t>+1,282</t>
+  </si>
+  <si>
+    <t>-2,171</t>
+  </si>
+  <si>
+    <t>+4,212</t>
+  </si>
+  <si>
+    <t>+546</t>
+  </si>
+  <si>
+    <t>-838</t>
+  </si>
+  <si>
+    <t>+2,192</t>
+  </si>
+  <si>
+    <t>+913</t>
+  </si>
+  <si>
+    <t>+1,403</t>
+  </si>
+  <si>
+    <t>-1,070</t>
+  </si>
+  <si>
+    <t>+1,064</t>
+  </si>
+  <si>
+    <t>+917</t>
+  </si>
+  <si>
+    <t>+1,599</t>
+  </si>
+  <si>
+    <t>+1,108</t>
+  </si>
+  <si>
     <t>AUG 2024</t>
   </si>
   <si>
-    <t>SEP 2024</t>
+    <t>NOV 2024</t>
+  </si>
+  <si>
+    <t>JAN 2025</t>
+  </si>
+  <si>
+    <t>AUG 2025</t>
+  </si>
+  <si>
+    <t>NOV 2025</t>
+  </si>
+  <si>
+    <t>JAN 2026</t>
+  </si>
+  <si>
+    <t>-919</t>
+  </si>
+  <si>
+    <t>-983</t>
+  </si>
+  <si>
+    <t>+2,251</t>
+  </si>
+  <si>
+    <t>+1,135</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>+733</t>
+  </si>
+  <si>
+    <t>-96</t>
+  </si>
+  <si>
+    <t>-2,229</t>
+  </si>
+  <si>
+    <t>-81</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>+1,263</t>
+  </si>
+  <si>
+    <t>-291</t>
+  </si>
+  <si>
+    <t>-9,384</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>-1,755</t>
+  </si>
+  <si>
+    <t>+1,358</t>
+  </si>
+  <si>
+    <t>+1,587</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>-3,658</t>
+  </si>
+  <si>
+    <t>-1,506</t>
+  </si>
+  <si>
+    <t>+584</t>
+  </si>
+  <si>
+    <t>+1,359</t>
+  </si>
+  <si>
+    <t>+1,969</t>
+  </si>
+  <si>
+    <t>+1,618</t>
+  </si>
+  <si>
+    <t>+1,842</t>
+  </si>
+  <si>
+    <t>+1,505</t>
+  </si>
+  <si>
+    <t>-69</t>
+  </si>
+  <si>
+    <t>+420</t>
+  </si>
+  <si>
+    <t>+1,241</t>
   </si>
   <si>
     <t>OCT 2024</t>
   </si>
   <si>
-    <t>DEC 2024</t>
-  </si>
-  <si>
-    <t>JAN 2025</t>
-  </si>
-  <si>
-    <t>MAR 2025</t>
-  </si>
-  <si>
-    <t>MAY 2025</t>
-  </si>
-  <si>
-    <t>JUL 2025</t>
-  </si>
-  <si>
-    <t>AUG 2025</t>
-  </si>
-  <si>
-    <t>SEP 2025</t>
-  </si>
-  <si>
     <t>OCT 2025</t>
   </si>
   <si>
-    <t>DEC 2025</t>
-  </si>
-  <si>
-    <t>Market Open Interest</t>
-  </si>
-  <si>
-    <t>Change in OI</t>
-  </si>
-  <si>
-    <t>07 Aug 2024</t>
-  </si>
-  <si>
-    <t>-2,527</t>
-  </si>
-  <si>
-    <t>+1,565</t>
-  </si>
-  <si>
-    <t>+2,464</t>
+    <t>-324</t>
+  </si>
+  <si>
+    <t>-2,247</t>
+  </si>
+  <si>
+    <t>627</t>
+  </si>
+  <si>
+    <t>-3,146</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>-664</t>
+  </si>
+  <si>
+    <t>-2,458</t>
+  </si>
+  <si>
+    <t>+1,285</t>
+  </si>
+  <si>
+    <t>-4,482</t>
+  </si>
+  <si>
+    <t>+1,017</t>
+  </si>
+  <si>
+    <t>+1,004</t>
+  </si>
+  <si>
+    <t>-870</t>
+  </si>
+  <si>
+    <t>-709</t>
+  </si>
+  <si>
+    <t>+225</t>
+  </si>
+  <si>
+    <t>-7,513</t>
+  </si>
+  <si>
+    <t>+362</t>
+  </si>
+  <si>
+    <t>+410</t>
+  </si>
+  <si>
+    <t>-831</t>
+  </si>
+  <si>
+    <t>+283</t>
+  </si>
+  <si>
+    <t>+889</t>
+  </si>
+  <si>
+    <t>+3,769</t>
+  </si>
+  <si>
+    <t>+2,470</t>
+  </si>
+  <si>
+    <t>+479</t>
+  </si>
+  <si>
+    <t>-1,163</t>
+  </si>
+  <si>
+    <t>+147</t>
+  </si>
+  <si>
+    <t>+82</t>
+  </si>
+  <si>
+    <t>+5,641</t>
+  </si>
+  <si>
+    <t>+938</t>
+  </si>
+  <si>
+    <t>+557</t>
+  </si>
+  <si>
+    <t>-2,526</t>
+  </si>
+  <si>
+    <t>+1,556</t>
+  </si>
+  <si>
+    <t>+2,382</t>
+  </si>
+  <si>
+    <t>-928</t>
   </si>
   <si>
     <t>-1,212</t>
   </si>
   <si>
-    <t>MAR 2026</t>
-  </si>
-  <si>
-    <t>MAY 2026</t>
-  </si>
-  <si>
-    <t>JUL 2026</t>
-  </si>
-  <si>
-    <t>-10,888</t>
+    <t>-471</t>
+  </si>
+  <si>
+    <t>-1,091</t>
+  </si>
+  <si>
+    <t>-760</t>
+  </si>
+  <si>
+    <t>-638</t>
+  </si>
+  <si>
+    <t>+618</t>
+  </si>
+  <si>
+    <t>-5,060</t>
+  </si>
+  <si>
+    <t>+75</t>
+  </si>
+  <si>
+    <t>-2,847</t>
+  </si>
+  <si>
+    <t>-1,788</t>
+  </si>
+  <si>
+    <t>-161</t>
+  </si>
+  <si>
+    <t>+2,524</t>
+  </si>
+  <si>
+    <t>+1,012</t>
+  </si>
+  <si>
+    <t>+1,526</t>
+  </si>
+  <si>
+    <t>+642</t>
+  </si>
+  <si>
+    <t>+1,355</t>
+  </si>
+  <si>
+    <t>-5,305</t>
+  </si>
+  <si>
+    <t>-643</t>
+  </si>
+  <si>
+    <t>-2,911</t>
+  </si>
+  <si>
+    <t>+103</t>
+  </si>
+  <si>
+    <t>+493</t>
+  </si>
+  <si>
+    <t>-10,478</t>
+  </si>
+  <si>
+    <t>-791</t>
   </si>
   <si>
     <t>+1,465</t>
   </si>
   <si>
-    <t>NOV 2024</t>
-  </si>
-  <si>
-    <t>NOV 2025</t>
-  </si>
-  <si>
-    <t>JAN 2026</t>
-  </si>
-  <si>
-    <t>+2,251</t>
-  </si>
-  <si>
-    <t>+1,135</t>
-  </si>
-  <si>
-    <t>-2,247</t>
-  </si>
-  <si>
-    <t>-3,117</t>
+    <t>-3,407</t>
+  </si>
+  <si>
+    <t>-1,496</t>
+  </si>
+  <si>
+    <t>+459</t>
+  </si>
+  <si>
+    <t>-4,820</t>
+  </si>
+  <si>
+    <t>+422</t>
+  </si>
+  <si>
+    <t>+384</t>
+  </si>
+  <si>
+    <t>-3,078</t>
+  </si>
+  <si>
+    <t>+2,270</t>
+  </si>
+  <si>
+    <t>-118</t>
+  </si>
+  <si>
+    <t>+1,485</t>
+  </si>
+  <si>
+    <t>+2,881</t>
+  </si>
+  <si>
+    <t>+350</t>
+  </si>
+  <si>
+    <t>SRW WHEAT</t>
+  </si>
+  <si>
+    <t>HRW WHEAT</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>SOYBEANS</t>
+  </si>
+  <si>
+    <t>SOYMEAL</t>
+  </si>
+  <si>
+    <t>SOYOIL</t>
   </si>
 </sst>
 </file>
@@ -177,10 +646,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,21 +959,2758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="str">
+        <f>SRW!A1</f>
+        <v>Date</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>SRW!B1</f>
+        <v>SEP 2024</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>SRW!C1</f>
+        <v>DEC 2024</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>SRW!D1</f>
+        <v>MAR 2025</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>SRW!E1</f>
+        <v>MAY 2025</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>SRW!F1</f>
+        <v>JUL 2025</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>SRW!G1</f>
+        <v>SEP 2025</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>SRW!H1</f>
+        <v>DEC 2025</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>SRW!I1</f>
+        <v>MAR 2026</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>SRW!J1</f>
+        <v>MAY 2026</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>SRW!K1</f>
+        <v>JUL 2026</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2" t="str">
+        <f>SRW!L1</f>
+        <v>Market Open Interest</v>
+      </c>
+      <c r="S2" s="2" t="str">
+        <f>SRW!M1</f>
+        <v>Change in OI</v>
+      </c>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="str">
+        <f>SRW!A2</f>
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>SRW!B2</f>
+        <v>-10,478</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>SRW!C2</f>
+        <v>-791</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>SRW!D2</f>
+        <v>+1,465</v>
+      </c>
+      <c r="E3" s="2">
+        <f>SRW!E2</f>
+        <v>998</v>
+      </c>
+      <c r="F3" s="2">
+        <f>SRW!F2</f>
+        <v>400</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SRW!G2</f>
+        <v>-9</v>
+      </c>
+      <c r="H3" s="2">
+        <f>SRW!H2</f>
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
+        <f>SRW!I2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f>SRW!J2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f>SRW!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
+        <f>SRW!L2</f>
+        <v>423149</v>
+      </c>
+      <c r="S3" s="2">
+        <f>SRW!M2</f>
+        <v>-8398</v>
+      </c>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="str">
+        <f>SRW!A3</f>
+        <v>06 Aug 2024</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>SRW!B3</f>
+        <v>-3,407</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>SRW!C3</f>
+        <v>-1,496</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>SRW!D3</f>
+        <v>+459</v>
+      </c>
+      <c r="E4" s="2">
+        <f>SRW!E3</f>
+        <v>-57</v>
+      </c>
+      <c r="F4" s="2">
+        <f>SRW!F3</f>
+        <v>447</v>
+      </c>
+      <c r="G4" s="2">
+        <f>SRW!G3</f>
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <f>SRW!H3</f>
+        <v>14</v>
+      </c>
+      <c r="I4" s="2">
+        <f>SRW!I3</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <f>SRW!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f>SRW!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <f>SRW!L3</f>
+        <v>431547</v>
+      </c>
+      <c r="S4" s="2">
+        <f>SRW!M3</f>
+        <v>-4019</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="str">
+        <f>SRW!A4</f>
+        <v>05 Aug 2024</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>SRW!B4</f>
+        <v>-4,820</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>SRW!C4</f>
+        <v>+422</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>SRW!D4</f>
+        <v>+384</v>
+      </c>
+      <c r="E5" s="2">
+        <f>SRW!E4</f>
+        <v>161</v>
+      </c>
+      <c r="F5" s="2">
+        <f>SRW!F4</f>
+        <v>458</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SRW!G4</f>
+        <v>-45</v>
+      </c>
+      <c r="H5" s="2">
+        <f>SRW!H4</f>
+        <v>-2</v>
+      </c>
+      <c r="I5" s="2">
+        <f>SRW!I4</f>
+        <v>32</v>
+      </c>
+      <c r="J5" s="2">
+        <f>SRW!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f>SRW!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <f>SRW!L4</f>
+        <v>435566</v>
+      </c>
+      <c r="S5" s="2">
+        <f>SRW!M4</f>
+        <v>-3410</v>
+      </c>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="str">
+        <f>SRW!A5</f>
+        <v>02 Aug 2024</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>SRW!B5</f>
+        <v>-3,078</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>SRW!C5</f>
+        <v>+2,270</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>SRW!D5</f>
+        <v>-118</v>
+      </c>
+      <c r="E6" s="2">
+        <f>SRW!E5</f>
+        <v>-7</v>
+      </c>
+      <c r="F6" s="2">
+        <f>SRW!F5</f>
+        <v>19</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SRW!G5</f>
+        <v>-31</v>
+      </c>
+      <c r="H6" s="2">
+        <f>SRW!H5</f>
+        <v>-52</v>
+      </c>
+      <c r="I6" s="2">
+        <f>SRW!I5</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <f>SRW!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f>SRW!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
+        <f>SRW!L5</f>
+        <v>438976</v>
+      </c>
+      <c r="S6" s="2">
+        <f>SRW!M5</f>
+        <v>-996</v>
+      </c>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="str">
+        <f>SRW!A6</f>
+        <v>01 Aug 2024</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>SRW!B6</f>
+        <v>+1,485</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>SRW!C6</f>
+        <v>+2,881</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>SRW!D6</f>
+        <v>+350</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SRW!E6</f>
+        <v>398</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SRW!F6</f>
+        <v>-9</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SRW!G6</f>
+        <v>39</v>
+      </c>
+      <c r="H7" s="2">
+        <f>SRW!H6</f>
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <f>SRW!I6</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="2">
+        <f>SRW!J6</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <f>SRW!K6</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <f>SRW!L6</f>
+        <v>439972</v>
+      </c>
+      <c r="S7" s="2">
+        <f>SRW!M6</f>
+        <v>5173</v>
+      </c>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="str">
+        <f>HRW!A1</f>
+        <v>Date</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>HRW!B1</f>
+        <v>SEP 2024</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>HRW!C1</f>
+        <v>DEC 2024</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>HRW!D1</f>
+        <v>MAR 2025</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>HRW!E1</f>
+        <v>MAY 2025</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>HRW!F1</f>
+        <v>JUL 2025</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>HRW!G1</f>
+        <v>SEP 2025</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>HRW!H1</f>
+        <v>DEC 2025</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>HRW!I1</f>
+        <v>MAR 2026</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>HRW!J1</f>
+        <v>MAY 2026</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>HRW!K1</f>
+        <v>JUL 2026</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2" t="str">
+        <f>HRW!L1</f>
+        <v>Market Open Interest</v>
+      </c>
+      <c r="S11" s="2" t="str">
+        <f>HRW!M1</f>
+        <v>Change in OI</v>
+      </c>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="str">
+        <f>HRW!A2</f>
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>HRW!B2</f>
+        <v>-11,508</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>HRW!C2</f>
+        <v>+7,211</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>HRW!D2</f>
+        <v>+1,282</v>
+      </c>
+      <c r="E12" s="2">
+        <f>HRW!E2</f>
+        <v>361</v>
+      </c>
+      <c r="F12" s="2">
+        <f>HRW!F2</f>
+        <v>461</v>
+      </c>
+      <c r="G12" s="2">
+        <f>HRW!G2</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="2">
+        <f>HRW!H2</f>
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
+        <f>HRW!I2</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f>HRW!J2</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f>HRW!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2">
+        <f>HRW!L2</f>
+        <v>262840</v>
+      </c>
+      <c r="S12" s="2">
+        <f>HRW!M2</f>
+        <v>-2166</v>
+      </c>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="str">
+        <f>HRW!A3</f>
+        <v>06 Aug 2024</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>HRW!B3</f>
+        <v>-2,171</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>HRW!C3</f>
+        <v>+4,212</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>HRW!D3</f>
+        <v>+546</v>
+      </c>
+      <c r="E13" s="2">
+        <f>HRW!E3</f>
+        <v>225</v>
+      </c>
+      <c r="F13" s="2">
+        <f>HRW!F3</f>
+        <v>495</v>
+      </c>
+      <c r="G13" s="2">
+        <f>HRW!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f>HRW!H3</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <f>HRW!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f>HRW!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <f>HRW!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <f>HRW!L3</f>
+        <v>265006</v>
+      </c>
+      <c r="S13" s="2">
+        <f>HRW!M3</f>
+        <v>3311</v>
+      </c>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="str">
+        <f>HRW!A4</f>
+        <v>05 Aug 2024</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>HRW!B4</f>
+        <v>-838</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>HRW!C4</f>
+        <v>+2,192</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>HRW!D4</f>
+        <v>+913</v>
+      </c>
+      <c r="E14" s="2">
+        <f>HRW!E4</f>
+        <v>281</v>
+      </c>
+      <c r="F14" s="2">
+        <f>HRW!F4</f>
+        <v>83</v>
+      </c>
+      <c r="G14" s="2">
+        <f>HRW!G4</f>
+        <v>88</v>
+      </c>
+      <c r="H14" s="2">
+        <f>HRW!H4</f>
+        <v>9</v>
+      </c>
+      <c r="I14" s="2">
+        <f>HRW!I4</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f>HRW!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <f>HRW!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <f>HRW!L4</f>
+        <v>261695</v>
+      </c>
+      <c r="S14" s="2">
+        <f>HRW!M4</f>
+        <v>2728</v>
+      </c>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="str">
+        <f>HRW!A5</f>
+        <v>02 Aug 2024</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>HRW!B5</f>
+        <v>+1,403</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>HRW!C5</f>
+        <v>-1,070</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>HRW!D5</f>
+        <v>+1,064</v>
+      </c>
+      <c r="E15" s="2">
+        <f>HRW!E5</f>
+        <v>213</v>
+      </c>
+      <c r="F15" s="2">
+        <f>HRW!F5</f>
+        <v>183</v>
+      </c>
+      <c r="G15" s="2">
+        <f>HRW!G5</f>
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <f>HRW!H5</f>
+        <v>-1</v>
+      </c>
+      <c r="I15" s="2">
+        <f>HRW!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f>HRW!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>HRW!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2">
+        <f>HRW!L5</f>
+        <v>258967</v>
+      </c>
+      <c r="S15" s="2">
+        <f>HRW!M5</f>
+        <v>1797</v>
+      </c>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="str">
+        <f>HRW!A6</f>
+        <v>01 Aug 2024</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>HRW!B6</f>
+        <v>+917</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>HRW!C6</f>
+        <v>+1,599</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>HRW!D6</f>
+        <v>+1,108</v>
+      </c>
+      <c r="E16" s="2">
+        <f>HRW!E6</f>
+        <v>320</v>
+      </c>
+      <c r="F16" s="2">
+        <f>HRW!F6</f>
+        <v>13</v>
+      </c>
+      <c r="G16" s="2">
+        <f>HRW!G6</f>
+        <v>-4</v>
+      </c>
+      <c r="H16" s="2">
+        <f>HRW!H6</f>
+        <v>-1</v>
+      </c>
+      <c r="I16" s="2">
+        <f>HRW!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f>HRW!J6</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f>HRW!K6</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
+        <f>HRW!L6</f>
+        <v>257170</v>
+      </c>
+      <c r="S16" s="2">
+        <f>HRW!M6</f>
+        <v>3952</v>
+      </c>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="str">
+        <f>Corn!A1</f>
+        <v>Date</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>Corn!B1</f>
+        <v>SEP 2024</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>Corn!C1</f>
+        <v>DEC 2024</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>Corn!D1</f>
+        <v>MAR 2025</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f>Corn!E1</f>
+        <v>MAY 2025</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f>Corn!F1</f>
+        <v>JUL 2025</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>Corn!G1</f>
+        <v>SEP 2025</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f>Corn!H1</f>
+        <v>DEC 2025</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f>Corn!I1</f>
+        <v>MAR 2026</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>Corn!J1</f>
+        <v>MAY 2026</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f>Corn!K1</f>
+        <v>JUL 2026</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f>Corn!L1</f>
+        <v>SEP 2026</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f>Corn!M1</f>
+        <v>DEC 2026</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="str">
+        <f>Corn!N1</f>
+        <v>Market Open Interest</v>
+      </c>
+      <c r="S20" s="2" t="str">
+        <f>Corn!O1</f>
+        <v>Change in OI</v>
+      </c>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="str">
+        <f>Corn!A2</f>
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>Corn!B2</f>
+        <v>-28,970</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>Corn!C2</f>
+        <v>+8,561</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>Corn!D2</f>
+        <v>+6,719</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>Corn!E2</f>
+        <v>533</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f>Corn!F2</f>
+        <v>406</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f>Corn!G2</f>
+        <v>+1,692</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f>Corn!H2</f>
+        <v>899</v>
+      </c>
+      <c r="I21" s="2">
+        <f>Corn!I2</f>
+        <v>-18</v>
+      </c>
+      <c r="J21" s="2">
+        <f>Corn!J2</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="2">
+        <f>Corn!K2</f>
+        <v>5</v>
+      </c>
+      <c r="L21" s="2">
+        <f>Corn!L2</f>
+        <v>3</v>
+      </c>
+      <c r="M21" s="2">
+        <f>Corn!M2</f>
+        <v>60</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2">
+        <f>Corn!N2</f>
+        <v>1568196</v>
+      </c>
+      <c r="S21" s="2">
+        <f>Corn!O2</f>
+        <v>-10108</v>
+      </c>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="str">
+        <f>Corn!A3</f>
+        <v>06 Aug 2024</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>Corn!B3</f>
+        <v>-7,441</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>Corn!C3</f>
+        <v>-1,495</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>Corn!D3</f>
+        <v>+1,006</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>Corn!E3</f>
+        <v>279</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f>Corn!F3</f>
+        <v>836</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>Corn!G3</f>
+        <v>+518</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f>Corn!H3</f>
+        <v>+1,092</v>
+      </c>
+      <c r="I22" s="2">
+        <f>Corn!I3</f>
+        <v>81</v>
+      </c>
+      <c r="J22" s="2">
+        <f>Corn!J3</f>
+        <v>-2</v>
+      </c>
+      <c r="K22" s="2">
+        <f>Corn!K3</f>
+        <v>2</v>
+      </c>
+      <c r="L22" s="2">
+        <f>Corn!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <f>Corn!M3</f>
+        <v>20</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2">
+        <f>Corn!N3</f>
+        <v>1578304</v>
+      </c>
+      <c r="S22" s="2">
+        <f>Corn!O3</f>
+        <v>-5104</v>
+      </c>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="str">
+        <f>Corn!A4</f>
+        <v>05 Aug 2024</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>Corn!B4</f>
+        <v>-17,766</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f>Corn!C4</f>
+        <v>-5,775</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>Corn!D4</f>
+        <v>-257</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>Corn!E4</f>
+        <v>239</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f>Corn!F4</f>
+        <v>511</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>Corn!G4</f>
+        <v>+953</v>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f>Corn!H4</f>
+        <v>+1,538</v>
+      </c>
+      <c r="I23" s="2">
+        <f>Corn!I4</f>
+        <v>25</v>
+      </c>
+      <c r="J23" s="2">
+        <f>Corn!J4</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <f>Corn!K4</f>
+        <v>18</v>
+      </c>
+      <c r="L23" s="2">
+        <f>Corn!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <f>Corn!M4</f>
+        <v>63</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2">
+        <f>Corn!N4</f>
+        <v>1583408</v>
+      </c>
+      <c r="S23" s="2">
+        <f>Corn!O4</f>
+        <v>-20442</v>
+      </c>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="str">
+        <f>Corn!A5</f>
+        <v>02 Aug 2024</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>Corn!B5</f>
+        <v>-3,572</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>Corn!C5</f>
+        <v>+1,925</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>Corn!D5</f>
+        <v>+5,872</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>Corn!E5</f>
+        <v>714</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f>Corn!F5</f>
+        <v>+1,317</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f>Corn!G5</f>
+        <v>+2,238</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f>Corn!H5</f>
+        <v>+1,362</v>
+      </c>
+      <c r="I24" s="2">
+        <f>Corn!I5</f>
+        <v>36</v>
+      </c>
+      <c r="J24" s="2">
+        <f>Corn!J5</f>
+        <v>3</v>
+      </c>
+      <c r="K24" s="2">
+        <f>Corn!K5</f>
+        <v>21</v>
+      </c>
+      <c r="L24" s="2">
+        <f>Corn!L5</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <f>Corn!M5</f>
+        <v>68</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2">
+        <f>Corn!N5</f>
+        <v>1603850</v>
+      </c>
+      <c r="S24" s="2">
+        <f>Corn!O5</f>
+        <v>9986</v>
+      </c>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="str">
+        <f>Corn!A6</f>
+        <v>01 Aug 2024</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>Corn!B6</f>
+        <v>-6,835</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>Corn!C6</f>
+        <v>-1,211</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>Corn!D6</f>
+        <v>+1,264</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>Corn!E6</f>
+        <v>+1,291</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>Corn!F6</f>
+        <v>+1,900</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>Corn!G6</f>
+        <v>+1,035</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f>Corn!H6</f>
+        <v>+937</v>
+      </c>
+      <c r="I25" s="2">
+        <f>Corn!I6</f>
+        <v>43</v>
+      </c>
+      <c r="J25" s="2">
+        <f>Corn!J6</f>
+        <v>10</v>
+      </c>
+      <c r="K25" s="2">
+        <f>Corn!K6</f>
+        <v>21</v>
+      </c>
+      <c r="L25" s="2">
+        <f>Corn!L6</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <f>Corn!M6</f>
+        <v>18</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2">
+        <f>Corn!N6</f>
+        <v>1593864</v>
+      </c>
+      <c r="S25" s="2">
+        <f>Corn!O6</f>
+        <v>-1526</v>
+      </c>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="str">
+        <f>Soybean!A1</f>
+        <v>Date</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>Soybean!B1</f>
+        <v>AUG 2024</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f>Soybean!C1</f>
+        <v>SEP 2024</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>Soybean!D1</f>
+        <v>NOV 2024</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f>Soybean!E1</f>
+        <v>JAN 2025</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f>Soybean!F1</f>
+        <v>MAR 2025</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f>Soybean!G1</f>
+        <v>MAY 2025</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f>Soybean!H1</f>
+        <v>JUL 2025</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f>Soybean!I1</f>
+        <v>AUG 2025</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f>Soybean!J1</f>
+        <v>SEP 2025</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f>Soybean!K1</f>
+        <v>NOV 2025</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f>Soybean!L1</f>
+        <v>JAN 2026</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f>Soybean!M1</f>
+        <v>MAR 2026</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2" t="str">
+        <f>Soybean!N1</f>
+        <v>Market Open Interest</v>
+      </c>
+      <c r="S29" s="2" t="str">
+        <f>Soybean!O1</f>
+        <v>Change in OI</v>
+      </c>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="str">
+        <f>Soybean!A2</f>
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B30" s="2">
+        <f>Soybean!B2</f>
+        <v>-61</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f>Soybean!C2</f>
+        <v>-919</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>Soybean!D2</f>
+        <v>-983</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f>Soybean!E2</f>
+        <v>+2,251</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f>Soybean!F2</f>
+        <v>+1,135</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f>Soybean!G2</f>
+        <v>434</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f>Soybean!H2</f>
+        <v>+733</v>
+      </c>
+      <c r="I30" s="2">
+        <f>Soybean!I2</f>
+        <v>65</v>
+      </c>
+      <c r="J30" s="2">
+        <f>Soybean!J2</f>
+        <v>-3</v>
+      </c>
+      <c r="K30" s="2">
+        <f>Soybean!K2</f>
+        <v>44</v>
+      </c>
+      <c r="L30" s="2">
+        <f>Soybean!L2</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <f>Soybean!M2</f>
+        <v>-1</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2">
+        <f>Soybean!N2</f>
+        <v>789528</v>
+      </c>
+      <c r="S30" s="2">
+        <f>Soybean!O2</f>
+        <v>2696</v>
+      </c>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="str">
+        <f>Soybean!A3</f>
+        <v>06 Aug 2024</v>
+      </c>
+      <c r="B31" s="2">
+        <f>Soybean!B3</f>
+        <v>-550</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f>Soybean!C3</f>
+        <v>-96</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>Soybean!D3</f>
+        <v>-2,229</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f>Soybean!E3</f>
+        <v>-81</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f>Soybean!F3</f>
+        <v>34</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>Soybean!G3</f>
+        <v>500</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f>Soybean!H3</f>
+        <v>+1,263</v>
+      </c>
+      <c r="I31" s="2">
+        <f>Soybean!I3</f>
+        <v>-6</v>
+      </c>
+      <c r="J31" s="2">
+        <f>Soybean!J3</f>
+        <v>34</v>
+      </c>
+      <c r="K31" s="2">
+        <f>Soybean!K3</f>
+        <v>96</v>
+      </c>
+      <c r="L31" s="2">
+        <f>Soybean!L3</f>
+        <v>-1</v>
+      </c>
+      <c r="M31" s="2">
+        <f>Soybean!M3</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2">
+        <f>Soybean!N3</f>
+        <v>786832</v>
+      </c>
+      <c r="S31" s="2">
+        <f>Soybean!O3</f>
+        <v>-1034</v>
+      </c>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="str">
+        <f>Soybean!A4</f>
+        <v>05 Aug 2024</v>
+      </c>
+      <c r="B32" s="2">
+        <f>Soybean!B4</f>
+        <v>-48</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f>Soybean!C4</f>
+        <v>-291</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>Soybean!D4</f>
+        <v>-9,384</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f>Soybean!E4</f>
+        <v>+5</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f>Soybean!F4</f>
+        <v>-1,755</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f>Soybean!G4</f>
+        <v>+1,358</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f>Soybean!H4</f>
+        <v>+1,587</v>
+      </c>
+      <c r="I32" s="2">
+        <f>Soybean!I4</f>
+        <v>2</v>
+      </c>
+      <c r="J32" s="2">
+        <f>Soybean!J4</f>
+        <v>72</v>
+      </c>
+      <c r="K32" s="2">
+        <f>Soybean!K4</f>
+        <v>-107</v>
+      </c>
+      <c r="L32" s="2">
+        <f>Soybean!L4</f>
+        <v>-10</v>
+      </c>
+      <c r="M32" s="2">
+        <f>Soybean!M4</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2">
+        <f>Soybean!N4</f>
+        <v>787866</v>
+      </c>
+      <c r="S32" s="2">
+        <f>Soybean!O4</f>
+        <v>-8567</v>
+      </c>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="str">
+        <f>Soybean!A5</f>
+        <v>02 Aug 2024</v>
+      </c>
+      <c r="B33" s="2">
+        <f>Soybean!B5</f>
+        <v>-296</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f>Soybean!C5</f>
+        <v>483</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>Soybean!D5</f>
+        <v>-3,658</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f>Soybean!E5</f>
+        <v>-1,506</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f>Soybean!F5</f>
+        <v>+584</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>Soybean!G5</f>
+        <v>+1,359</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f>Soybean!H5</f>
+        <v>+1,969</v>
+      </c>
+      <c r="I33" s="2">
+        <f>Soybean!I5</f>
+        <v>31</v>
+      </c>
+      <c r="J33" s="2">
+        <f>Soybean!J5</f>
+        <v>-6</v>
+      </c>
+      <c r="K33" s="2">
+        <f>Soybean!K5</f>
+        <v>164</v>
+      </c>
+      <c r="L33" s="2">
+        <f>Soybean!L5</f>
+        <v>6</v>
+      </c>
+      <c r="M33" s="2">
+        <f>Soybean!M5</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2">
+        <f>Soybean!N5</f>
+        <v>796433</v>
+      </c>
+      <c r="S33" s="2">
+        <f>Soybean!O5</f>
+        <v>-869</v>
+      </c>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="str">
+        <f>Soybean!A6</f>
+        <v>01 Aug 2024</v>
+      </c>
+      <c r="B34" s="2">
+        <f>Soybean!B6</f>
+        <v>-667</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f>Soybean!C6</f>
+        <v>+1,618</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>Soybean!D6</f>
+        <v>+1,842</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f>Soybean!E6</f>
+        <v>+1,505</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f>Soybean!F6</f>
+        <v>-69</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f>Soybean!G6</f>
+        <v>+420</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f>Soybean!H6</f>
+        <v>+1,241</v>
+      </c>
+      <c r="I34" s="2">
+        <f>Soybean!I6</f>
+        <v>7</v>
+      </c>
+      <c r="J34" s="2">
+        <f>Soybean!J6</f>
+        <v>6</v>
+      </c>
+      <c r="K34" s="2">
+        <f>Soybean!K6</f>
+        <v>-143</v>
+      </c>
+      <c r="L34" s="2">
+        <f>Soybean!L6</f>
+        <v>-3</v>
+      </c>
+      <c r="M34" s="2">
+        <f>Soybean!M6</f>
+        <v>1</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2">
+        <f>Soybean!N6</f>
+        <v>797302</v>
+      </c>
+      <c r="S34" s="2">
+        <f>Soybean!O6</f>
+        <v>5793</v>
+      </c>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="2"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="str">
+        <f>Soymeal!A1</f>
+        <v>Date</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f>Soymeal!B1</f>
+        <v>AUG 2024</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f>Soymeal!C1</f>
+        <v>SEP 2024</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>Soymeal!D1</f>
+        <v>OCT 2024</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f>Soymeal!E1</f>
+        <v>DEC 2024</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f>Soymeal!F1</f>
+        <v>JAN 2025</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f>Soymeal!G1</f>
+        <v>MAR 2025</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f>Soymeal!H1</f>
+        <v>MAY 2025</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f>Soymeal!I1</f>
+        <v>JUL 2025</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f>Soymeal!J1</f>
+        <v>AUG 2025</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f>Soymeal!K1</f>
+        <v>SEP 2025</v>
+      </c>
+      <c r="L38" s="2" t="str">
+        <f>Soymeal!L1</f>
+        <v>OCT 2025</v>
+      </c>
+      <c r="M38" s="2" t="str">
+        <f>Soymeal!M1</f>
+        <v>DEC 2025</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="str">
+        <f>Soymeal!N1</f>
+        <v>Market Open Interest</v>
+      </c>
+      <c r="S38" s="2" t="str">
+        <f>Soymeal!O1</f>
+        <v>Change in OI</v>
+      </c>
+      <c r="T38" s="2"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="str">
+        <f>Soymeal!A2</f>
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f>Soymeal!B2</f>
+        <v>-324</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f>Soymeal!C2</f>
+        <v>-2,247</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f>Soymeal!D2</f>
+        <v>627</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f>Soymeal!E2</f>
+        <v>-3,146</v>
+      </c>
+      <c r="F39" s="2">
+        <f>Soymeal!F2</f>
+        <v>-21</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f>Soymeal!G2</f>
+        <v>950</v>
+      </c>
+      <c r="H39" s="2">
+        <f>Soymeal!H2</f>
+        <v>267</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>Soymeal!I2</f>
+        <v>144</v>
+      </c>
+      <c r="J39" s="2">
+        <f>Soymeal!J2</f>
+        <v>98</v>
+      </c>
+      <c r="K39" s="2">
+        <f>Soymeal!K2</f>
+        <v>126</v>
+      </c>
+      <c r="L39" s="2">
+        <f>Soymeal!L2</f>
+        <v>83</v>
+      </c>
+      <c r="M39" s="2">
+        <f>Soymeal!M2</f>
+        <v>77</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2">
+        <f>Soymeal!N2</f>
+        <v>514250</v>
+      </c>
+      <c r="S39" s="2">
+        <f>Soymeal!O2</f>
+        <v>-3379</v>
+      </c>
+      <c r="T39" s="2"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="str">
+        <f>Soymeal!A3</f>
+        <v>06 Aug 2024</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f>Soymeal!B3</f>
+        <v>-664</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f>Soymeal!C3</f>
+        <v>-2,458</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>Soymeal!D3</f>
+        <v>+1,285</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f>Soymeal!E3</f>
+        <v>-4,482</v>
+      </c>
+      <c r="F40" s="2">
+        <f>Soymeal!F3</f>
+        <v>404</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f>Soymeal!G3</f>
+        <v>+1,017</v>
+      </c>
+      <c r="H40" s="2">
+        <f>Soymeal!H3</f>
+        <v>243</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f>Soymeal!I3</f>
+        <v>+1,004</v>
+      </c>
+      <c r="J40" s="2">
+        <f>Soymeal!J3</f>
+        <v>135</v>
+      </c>
+      <c r="K40" s="2">
+        <f>Soymeal!K3</f>
+        <v>20</v>
+      </c>
+      <c r="L40" s="2">
+        <f>Soymeal!L3</f>
+        <v>35</v>
+      </c>
+      <c r="M40" s="2">
+        <f>Soymeal!M3</f>
+        <v>41</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2">
+        <f>Soymeal!N3</f>
+        <v>517629</v>
+      </c>
+      <c r="S40" s="2">
+        <f>Soymeal!O3</f>
+        <v>-3437</v>
+      </c>
+      <c r="T40" s="2"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="str">
+        <f>Soymeal!A4</f>
+        <v>05 Aug 2024</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>Soymeal!B4</f>
+        <v>-870</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f>Soymeal!C4</f>
+        <v>-709</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f>Soymeal!D4</f>
+        <v>+225</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f>Soymeal!E4</f>
+        <v>-7,513</v>
+      </c>
+      <c r="F41" s="2">
+        <f>Soymeal!F4</f>
+        <v>-825</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f>Soymeal!G4</f>
+        <v>+362</v>
+      </c>
+      <c r="H41" s="2">
+        <f>Soymeal!H4</f>
+        <v>550</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f>Soymeal!I4</f>
+        <v>+410</v>
+      </c>
+      <c r="J41" s="2">
+        <f>Soymeal!J4</f>
+        <v>27</v>
+      </c>
+      <c r="K41" s="2">
+        <f>Soymeal!K4</f>
+        <v>6</v>
+      </c>
+      <c r="L41" s="2">
+        <f>Soymeal!L4</f>
+        <v>12</v>
+      </c>
+      <c r="M41" s="2">
+        <f>Soymeal!M4</f>
+        <v>13</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2">
+        <f>Soymeal!N4</f>
+        <v>521066</v>
+      </c>
+      <c r="S41" s="2">
+        <f>Soymeal!O4</f>
+        <v>-8312</v>
+      </c>
+      <c r="T41" s="2"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="str">
+        <f>Soymeal!A5</f>
+        <v>02 Aug 2024</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>Soymeal!B5</f>
+        <v>-831</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f>Soymeal!C5</f>
+        <v>+283</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f>Soymeal!D5</f>
+        <v>+889</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f>Soymeal!E5</f>
+        <v>+3,769</v>
+      </c>
+      <c r="F42" s="2">
+        <f>Soymeal!F5</f>
+        <v>390</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f>Soymeal!G5</f>
+        <v>+2,470</v>
+      </c>
+      <c r="H42" s="2">
+        <f>Soymeal!H5</f>
+        <v>913</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f>Soymeal!I5</f>
+        <v>+479</v>
+      </c>
+      <c r="J42" s="2">
+        <f>Soymeal!J5</f>
+        <v>57</v>
+      </c>
+      <c r="K42" s="2">
+        <f>Soymeal!K5</f>
+        <v>3</v>
+      </c>
+      <c r="L42" s="2">
+        <f>Soymeal!L5</f>
+        <v>8</v>
+      </c>
+      <c r="M42" s="2">
+        <f>Soymeal!M5</f>
+        <v>35</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2">
+        <f>Soymeal!N5</f>
+        <v>529378</v>
+      </c>
+      <c r="S42" s="2">
+        <f>Soymeal!O5</f>
+        <v>8468</v>
+      </c>
+      <c r="T42" s="2"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="str">
+        <f>Soymeal!A6</f>
+        <v>01 Aug 2024</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>Soymeal!B6</f>
+        <v>-1,163</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f>Soymeal!C6</f>
+        <v>+147</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>Soymeal!D6</f>
+        <v>+82</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f>Soymeal!E6</f>
+        <v>+5,641</v>
+      </c>
+      <c r="F43" s="2">
+        <f>Soymeal!F6</f>
+        <v>320</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f>Soymeal!G6</f>
+        <v>+938</v>
+      </c>
+      <c r="H43" s="2">
+        <f>Soymeal!H6</f>
+        <v>393</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f>Soymeal!I6</f>
+        <v>+557</v>
+      </c>
+      <c r="J43" s="2">
+        <f>Soymeal!J6</f>
+        <v>216</v>
+      </c>
+      <c r="K43" s="2">
+        <f>Soymeal!K6</f>
+        <v>24</v>
+      </c>
+      <c r="L43" s="2">
+        <f>Soymeal!L6</f>
+        <v>110</v>
+      </c>
+      <c r="M43" s="2">
+        <f>Soymeal!M6</f>
+        <v>85</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2">
+        <f>Soymeal!N6</f>
+        <v>520910</v>
+      </c>
+      <c r="S43" s="2">
+        <f>Soymeal!O6</f>
+        <v>7358</v>
+      </c>
+      <c r="T43" s="2"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="2"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="str">
+        <f>Soyoil!A1</f>
+        <v>Date</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f>Soyoil!B1</f>
+        <v>AUG 2024</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f>Soyoil!C1</f>
+        <v>SEP 2024</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>Soyoil!D1</f>
+        <v>OCT 2024</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f>Soyoil!E1</f>
+        <v>DEC 2024</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f>Soyoil!F1</f>
+        <v>JAN 2025</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f>Soyoil!G1</f>
+        <v>MAR 2025</v>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f>Soyoil!H1</f>
+        <v>MAY 2025</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f>Soyoil!I1</f>
+        <v>JUL 2025</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f>Soyoil!J1</f>
+        <v>AUG 2025</v>
+      </c>
+      <c r="K47" s="2" t="str">
+        <f>Soyoil!K1</f>
+        <v>SEP 2025</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f>Soyoil!L1</f>
+        <v>OCT 2025</v>
+      </c>
+      <c r="M47" s="2" t="str">
+        <f>Soyoil!M1</f>
+        <v>DEC 2025</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2" t="str">
+        <f>Soyoil!N1</f>
+        <v>Market Open Interest</v>
+      </c>
+      <c r="S47" s="2" t="str">
+        <f>Soyoil!O1</f>
+        <v>Change in OI</v>
+      </c>
+      <c r="T47" s="2"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="str">
+        <f>Soyoil!A2</f>
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B48" s="2">
+        <f>Soyoil!B2</f>
+        <v>-167</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f>Soyoil!C2</f>
+        <v>-2,526</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f>Soyoil!D2</f>
+        <v>+1,556</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f>Soyoil!E2</f>
+        <v>+2,382</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f>Soyoil!F2</f>
+        <v>-928</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f>Soyoil!G2</f>
+        <v>-1,212</v>
+      </c>
+      <c r="H48" s="2">
+        <f>Soyoil!H2</f>
+        <v>282</v>
+      </c>
+      <c r="I48" s="2">
+        <f>Soyoil!I2</f>
+        <v>373</v>
+      </c>
+      <c r="J48" s="2">
+        <f>Soyoil!J2</f>
+        <v>-43</v>
+      </c>
+      <c r="K48" s="2">
+        <f>Soyoil!K2</f>
+        <v>-2</v>
+      </c>
+      <c r="L48" s="2">
+        <f>Soyoil!L2</f>
+        <v>7</v>
+      </c>
+      <c r="M48" s="2">
+        <f>Soyoil!M2</f>
+        <v>6</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2">
+        <f>Soyoil!N2</f>
+        <v>550515</v>
+      </c>
+      <c r="S48" s="2">
+        <f>Soyoil!O2</f>
+        <v>-272</v>
+      </c>
+      <c r="T48" s="2"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="str">
+        <f>Soyoil!A3</f>
+        <v>06 Aug 2024</v>
+      </c>
+      <c r="B49" s="2">
+        <f>Soyoil!B3</f>
+        <v>-105</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f>Soyoil!C3</f>
+        <v>-471</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f>Soyoil!D3</f>
+        <v>-1,091</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f>Soyoil!E3</f>
+        <v>-760</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f>Soyoil!F3</f>
+        <v>-638</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f>Soyoil!G3</f>
+        <v>+618</v>
+      </c>
+      <c r="H49" s="2">
+        <f>Soyoil!H3</f>
+        <v>907</v>
+      </c>
+      <c r="I49" s="2">
+        <f>Soyoil!I3</f>
+        <v>594</v>
+      </c>
+      <c r="J49" s="2">
+        <f>Soyoil!J3</f>
+        <v>95</v>
+      </c>
+      <c r="K49" s="2">
+        <f>Soyoil!K3</f>
+        <v>116</v>
+      </c>
+      <c r="L49" s="2">
+        <f>Soyoil!L3</f>
+        <v>112</v>
+      </c>
+      <c r="M49" s="2">
+        <f>Soyoil!M3</f>
+        <v>61</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2">
+        <f>Soyoil!N3</f>
+        <v>550787</v>
+      </c>
+      <c r="S49" s="2">
+        <f>Soyoil!O3</f>
+        <v>-564</v>
+      </c>
+      <c r="T49" s="2"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="str">
+        <f>Soyoil!A4</f>
+        <v>05 Aug 2024</v>
+      </c>
+      <c r="B50" s="2">
+        <f>Soyoil!B4</f>
+        <v>-12</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f>Soyoil!C4</f>
+        <v>-5,060</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f>Soyoil!D4</f>
+        <v>+75</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f>Soyoil!E4</f>
+        <v>-2,847</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f>Soyoil!F4</f>
+        <v>-1,788</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f>Soyoil!G4</f>
+        <v>-161</v>
+      </c>
+      <c r="H50" s="2">
+        <f>Soyoil!H4</f>
+        <v>556</v>
+      </c>
+      <c r="I50" s="2">
+        <f>Soyoil!I4</f>
+        <v>389</v>
+      </c>
+      <c r="J50" s="2">
+        <f>Soyoil!J4</f>
+        <v>92</v>
+      </c>
+      <c r="K50" s="2">
+        <f>Soyoil!K4</f>
+        <v>99</v>
+      </c>
+      <c r="L50" s="2">
+        <f>Soyoil!L4</f>
+        <v>78</v>
+      </c>
+      <c r="M50" s="2">
+        <f>Soyoil!M4</f>
+        <v>-190</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2">
+        <f>Soyoil!N4</f>
+        <v>551351</v>
+      </c>
+      <c r="S50" s="2">
+        <f>Soyoil!O4</f>
+        <v>-8769</v>
+      </c>
+      <c r="T50" s="2"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="str">
+        <f>Soyoil!A5</f>
+        <v>02 Aug 2024</v>
+      </c>
+      <c r="B51" s="2">
+        <f>Soyoil!B5</f>
+        <v>34</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f>Soyoil!C5</f>
+        <v>+2,524</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f>Soyoil!D5</f>
+        <v>+1,012</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f>Soyoil!E5</f>
+        <v>+1,526</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f>Soyoil!F5</f>
+        <v>+642</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f>Soyoil!G5</f>
+        <v>+1,355</v>
+      </c>
+      <c r="H51" s="2">
+        <f>Soyoil!H5</f>
+        <v>931</v>
+      </c>
+      <c r="I51" s="2">
+        <f>Soyoil!I5</f>
+        <v>295</v>
+      </c>
+      <c r="J51" s="2">
+        <f>Soyoil!J5</f>
+        <v>41</v>
+      </c>
+      <c r="K51" s="2">
+        <f>Soyoil!K5</f>
+        <v>173</v>
+      </c>
+      <c r="L51" s="2">
+        <f>Soyoil!L5</f>
+        <v>79</v>
+      </c>
+      <c r="M51" s="2">
+        <f>Soyoil!M5</f>
+        <v>94</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2">
+        <f>Soyoil!N5</f>
+        <v>560120</v>
+      </c>
+      <c r="S51" s="2">
+        <f>Soyoil!O5</f>
+        <v>8705</v>
+      </c>
+      <c r="T51" s="2"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="str">
+        <f>Soyoil!A6</f>
+        <v>01 Aug 2024</v>
+      </c>
+      <c r="B52" s="2">
+        <f>Soyoil!B6</f>
+        <v>-232</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f>Soyoil!C6</f>
+        <v>-5,305</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>Soyoil!D6</f>
+        <v>-643</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f>Soyoil!E6</f>
+        <v>-2,911</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f>Soyoil!F6</f>
+        <v>+103</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f>Soyoil!G6</f>
+        <v>+493</v>
+      </c>
+      <c r="H52" s="2">
+        <f>Soyoil!H6</f>
+        <v>619</v>
+      </c>
+      <c r="I52" s="2">
+        <f>Soyoil!I6</f>
+        <v>103</v>
+      </c>
+      <c r="J52" s="2">
+        <f>Soyoil!J6</f>
+        <v>72</v>
+      </c>
+      <c r="K52" s="2">
+        <f>Soyoil!K6</f>
+        <v>31</v>
+      </c>
+      <c r="L52" s="2">
+        <f>Soyoil!L6</f>
+        <v>7</v>
+      </c>
+      <c r="M52" s="2">
+        <f>Soyoil!M6</f>
+        <v>39</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2">
+        <f>Soyoil!N6</f>
+        <v>551415</v>
+      </c>
+      <c r="S52" s="2">
+        <f>Soyoil!O6</f>
+        <v>-7624</v>
+      </c>
+      <c r="T52" s="2"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A46:S46"/>
+    <mergeCell ref="A37:S37"/>
+    <mergeCell ref="A28:S28"/>
+    <mergeCell ref="A19:S19"/>
+    <mergeCell ref="A10:S10"/>
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -553,47 +3765,235 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>-167</v>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>-18</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <v>1568196</v>
+      </c>
+      <c r="O2">
+        <v>-10108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>81</v>
+      </c>
+      <c r="J3">
+        <v>-2</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>20</v>
+      </c>
+      <c r="N3">
+        <v>1578304</v>
+      </c>
+      <c r="O3">
+        <v>-5104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="F2">
-        <v>-928</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2">
-        <v>282</v>
-      </c>
-      <c r="I2">
-        <v>373</v>
-      </c>
-      <c r="J2">
-        <v>-43</v>
-      </c>
-      <c r="K2">
-        <v>-2</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>6</v>
-      </c>
-      <c r="N2">
-        <v>550605</v>
-      </c>
-      <c r="O2">
-        <v>-182</v>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>63</v>
+      </c>
+      <c r="N4">
+        <v>1583408</v>
+      </c>
+      <c r="O4">
+        <v>-20442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>36</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>68</v>
+      </c>
+      <c r="N5">
+        <v>1603850</v>
+      </c>
+      <c r="O5">
+        <v>9986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>1593864</v>
+      </c>
+      <c r="O6">
+        <v>-1526</v>
       </c>
     </row>
   </sheetData>
@@ -603,9 +4003,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -614,34 +4016,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
@@ -655,40 +4057,204 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2">
+        <v>361</v>
+      </c>
+      <c r="F2">
+        <v>461</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>262840</v>
+      </c>
+      <c r="M2">
+        <v>-2166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
-        <v>-637</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>998</v>
-      </c>
-      <c r="F2">
-        <v>401</v>
-      </c>
-      <c r="G2">
-        <v>-9</v>
-      </c>
-      <c r="H2">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>422894</v>
-      </c>
-      <c r="M2">
-        <v>-8653</v>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>225</v>
+      </c>
+      <c r="F3">
+        <v>495</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>265006</v>
+      </c>
+      <c r="M3">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>281</v>
+      </c>
+      <c r="F4">
+        <v>83</v>
+      </c>
+      <c r="G4">
+        <v>88</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>261695</v>
+      </c>
+      <c r="M4">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>213</v>
+      </c>
+      <c r="F5">
+        <v>183</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>258967</v>
+      </c>
+      <c r="M5">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>320</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>-4</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>257170</v>
+      </c>
+      <c r="M6">
+        <v>3952</v>
       </c>
     </row>
   </sheetData>
@@ -698,9 +4264,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -709,40 +4277,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -758,23 +4326,23 @@
       <c r="B2">
         <v>-61</v>
       </c>
-      <c r="C2">
-        <v>-913</v>
-      </c>
-      <c r="D2">
-        <v>-980</v>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>434</v>
-      </c>
-      <c r="H2">
-        <v>733</v>
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
       </c>
       <c r="I2">
         <v>65</v>
@@ -792,10 +4360,198 @@
         <v>-1</v>
       </c>
       <c r="N2">
-        <v>789537</v>
+        <v>789528</v>
       </c>
       <c r="O2">
-        <v>2705</v>
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>-550</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3">
+        <v>-6</v>
+      </c>
+      <c r="J3">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>96</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>786832</v>
+      </c>
+      <c r="O3">
+        <v>-1034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>-48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <v>-107</v>
+      </c>
+      <c r="L4">
+        <v>-10</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>787866</v>
+      </c>
+      <c r="O4">
+        <v>-8567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>-296</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5">
+        <v>31</v>
+      </c>
+      <c r="J5">
+        <v>-6</v>
+      </c>
+      <c r="K5">
+        <v>164</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>796433</v>
+      </c>
+      <c r="O5">
+        <v>-869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>-667</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>-143</v>
+      </c>
+      <c r="L6">
+        <v>-3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>797302</v>
+      </c>
+      <c r="O6">
+        <v>5793</v>
       </c>
     </row>
   </sheetData>
@@ -805,9 +4561,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -816,40 +4574,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -862,29 +4620,29 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>-324</v>
+      <c r="B2" t="s">
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>627</v>
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>-21</v>
       </c>
-      <c r="G2">
-        <v>950</v>
+      <c r="G2" t="s">
+        <v>112</v>
       </c>
       <c r="H2">
         <v>267</v>
       </c>
-      <c r="I2">
-        <v>144</v>
+      <c r="I2" t="s">
+        <v>113</v>
       </c>
       <c r="J2">
         <v>98</v>
@@ -899,10 +4657,198 @@
         <v>77</v>
       </c>
       <c r="N2">
-        <v>514279</v>
+        <v>514250</v>
       </c>
       <c r="O2">
-        <v>-3350</v>
+        <v>-3379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3">
+        <v>404</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3">
+        <v>243</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3">
+        <v>135</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <v>41</v>
+      </c>
+      <c r="N3">
+        <v>517629</v>
+      </c>
+      <c r="O3">
+        <v>-3437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4">
+        <v>-825</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4">
+        <v>550</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>521066</v>
+      </c>
+      <c r="O4">
+        <v>-8312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5">
+        <v>390</v>
+      </c>
+      <c r="G5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5">
+        <v>913</v>
+      </c>
+      <c r="I5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5">
+        <v>57</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>35</v>
+      </c>
+      <c r="N5">
+        <v>529378</v>
+      </c>
+      <c r="O5">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6">
+        <v>320</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6">
+        <v>393</v>
+      </c>
+      <c r="I6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6">
+        <v>216</v>
+      </c>
+      <c r="K6">
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <v>110</v>
+      </c>
+      <c r="M6">
+        <v>85</v>
+      </c>
+      <c r="N6">
+        <v>520910</v>
+      </c>
+      <c r="O6">
+        <v>7358</v>
       </c>
     </row>
   </sheetData>
@@ -912,9 +4858,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="A1:O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -923,40 +4871,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -973,19 +4921,19 @@
         <v>-167</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>-928</v>
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="H2">
         <v>282</v>
@@ -1006,10 +4954,198 @@
         <v>6</v>
       </c>
       <c r="N2">
-        <v>550605</v>
+        <v>550515</v>
       </c>
       <c r="O2">
-        <v>-182</v>
+        <v>-272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>-105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3">
+        <v>907</v>
+      </c>
+      <c r="I3">
+        <v>594</v>
+      </c>
+      <c r="J3">
+        <v>95</v>
+      </c>
+      <c r="K3">
+        <v>116</v>
+      </c>
+      <c r="L3">
+        <v>112</v>
+      </c>
+      <c r="M3">
+        <v>61</v>
+      </c>
+      <c r="N3">
+        <v>550787</v>
+      </c>
+      <c r="O3">
+        <v>-564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>-12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4">
+        <v>556</v>
+      </c>
+      <c r="I4">
+        <v>389</v>
+      </c>
+      <c r="J4">
+        <v>92</v>
+      </c>
+      <c r="K4">
+        <v>99</v>
+      </c>
+      <c r="L4">
+        <v>78</v>
+      </c>
+      <c r="M4">
+        <v>-190</v>
+      </c>
+      <c r="N4">
+        <v>551351</v>
+      </c>
+      <c r="O4">
+        <v>-8769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H5">
+        <v>931</v>
+      </c>
+      <c r="I5">
+        <v>295</v>
+      </c>
+      <c r="J5">
+        <v>41</v>
+      </c>
+      <c r="K5">
+        <v>173</v>
+      </c>
+      <c r="L5">
+        <v>79</v>
+      </c>
+      <c r="M5">
+        <v>94</v>
+      </c>
+      <c r="N5">
+        <v>560120</v>
+      </c>
+      <c r="O5">
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>-232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6">
+        <v>619</v>
+      </c>
+      <c r="I6">
+        <v>103</v>
+      </c>
+      <c r="J6">
+        <v>72</v>
+      </c>
+      <c r="K6">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>39</v>
+      </c>
+      <c r="N6">
+        <v>551415</v>
+      </c>
+      <c r="O6">
+        <v>-7624</v>
       </c>
     </row>
   </sheetData>
@@ -1019,58 +5155,47 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
@@ -1084,19 +5209,19 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>-637</v>
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="E2">
         <v>998</v>
       </c>
       <c r="F2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G2">
         <v>-9</v>
@@ -1114,10 +5239,174 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>422894</v>
+        <v>423149</v>
       </c>
       <c r="M2">
-        <v>-8653</v>
+        <v>-8398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>-57</v>
+      </c>
+      <c r="F3">
+        <v>447</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>431547</v>
+      </c>
+      <c r="M3">
+        <v>-4019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4">
+        <v>161</v>
+      </c>
+      <c r="F4">
+        <v>458</v>
+      </c>
+      <c r="G4">
+        <v>-45</v>
+      </c>
+      <c r="H4">
+        <v>-2</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>435566</v>
+      </c>
+      <c r="M4">
+        <v>-3410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>-31</v>
+      </c>
+      <c r="H5">
+        <v>-52</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>438976</v>
+      </c>
+      <c r="M5">
+        <v>-996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6">
+        <v>398</v>
+      </c>
+      <c r="F6">
+        <v>-9</v>
+      </c>
+      <c r="G6">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>439972</v>
+      </c>
+      <c r="M6">
+        <v>5173</v>
       </c>
     </row>
   </sheetData>

--- a/OI/OI Data.xlsx
+++ b/OI/OI Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.hertshtengroup.com\Users\India\Data\anmol.chopra\Documents\FF Codes\Futures-First\OI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43905A3D-295F-45AA-BD04-411F487001A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5B5E1D-B545-45FA-861A-4EB9F86BD285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="17880" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="17880" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Soymeal" sheetId="5" r:id="rId5"/>
     <sheet name="Soyoil" sheetId="6" r:id="rId6"/>
     <sheet name="SRW" sheetId="7" r:id="rId7"/>
+    <sheet name="yEBM" sheetId="9" r:id="rId8"/>
+    <sheet name="yECO" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="261">
+  <si>
+    <t>SRW WHEAT</t>
+  </si>
+  <si>
+    <t>HRW WHEAT</t>
+  </si>
+  <si>
+    <t>CORN</t>
+  </si>
+  <si>
+    <t>SOYBEANS</t>
+  </si>
+  <si>
+    <t>SOYMEAL</t>
+  </si>
+  <si>
+    <t>SOYOIL</t>
+  </si>
+  <si>
+    <t>MILLING WHEAT</t>
+  </si>
+  <si>
+    <t>Market Open Interest</t>
+  </si>
+  <si>
+    <t>Change in OI</t>
+  </si>
+  <si>
+    <t>RAPESEED</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -80,10 +112,28 @@
     <t>DEC 2026</t>
   </si>
   <si>
-    <t>Market Open Interest</t>
-  </si>
-  <si>
-    <t>Change in OI</t>
+    <t>08 Aug 2024</t>
+  </si>
+  <si>
+    <t>-19322</t>
+  </si>
+  <si>
+    <t>3589</t>
+  </si>
+  <si>
+    <t>4406</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>594</t>
   </si>
   <si>
     <t>07 Aug 2024</t>
@@ -206,6 +256,15 @@
     <t>+937</t>
   </si>
   <si>
+    <t>-9624</t>
+  </si>
+  <si>
+    <t>1141</t>
+  </si>
+  <si>
+    <t>2540</t>
+  </si>
+  <si>
     <t>-11,508</t>
   </si>
   <si>
@@ -269,6 +328,24 @@
     <t>JAN 2026</t>
   </si>
   <si>
+    <t>-1806</t>
+  </si>
+  <si>
+    <t>1166</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>-919</t>
   </si>
   <si>
@@ -365,6 +442,24 @@
     <t>OCT 2025</t>
   </si>
   <si>
+    <t>-177</t>
+  </si>
+  <si>
+    <t>-2648</t>
+  </si>
+  <si>
+    <t>-28</t>
+  </si>
+  <si>
+    <t>-439</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
     <t>-324</t>
   </si>
   <si>
@@ -455,6 +550,21 @@
     <t>+557</t>
   </si>
   <si>
+    <t>-721</t>
+  </si>
+  <si>
+    <t>-409</t>
+  </si>
+  <si>
+    <t>-232</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>-452</t>
+  </si>
+  <si>
     <t>-2,526</t>
   </si>
   <si>
@@ -530,6 +640,18 @@
     <t>+493</t>
   </si>
   <si>
+    <t>-12405</t>
+  </si>
+  <si>
+    <t>-93</t>
+  </si>
+  <si>
+    <t>2831</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
     <t>-10,478</t>
   </si>
   <si>
@@ -539,6 +661,9 @@
     <t>+1,465</t>
   </si>
   <si>
+    <t>998</t>
+  </si>
+  <si>
     <t>-3,407</t>
   </si>
   <si>
@@ -548,6 +673,9 @@
     <t>+459</t>
   </si>
   <si>
+    <t>-57</t>
+  </si>
+  <si>
     <t>-4,820</t>
   </si>
   <si>
@@ -557,6 +685,9 @@
     <t>+384</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>-3,078</t>
   </si>
   <si>
@@ -566,6 +697,9 @@
     <t>-118</t>
   </si>
   <si>
+    <t>-7</t>
+  </si>
+  <si>
     <t>+1,485</t>
   </si>
   <si>
@@ -575,29 +709,128 @@
     <t>+350</t>
   </si>
   <si>
-    <t>SRW WHEAT</t>
-  </si>
-  <si>
-    <t>HRW WHEAT</t>
-  </si>
-  <si>
-    <t>CORN</t>
-  </si>
-  <si>
-    <t>SOYBEANS</t>
-  </si>
-  <si>
-    <t>SOYMEAL</t>
-  </si>
-  <si>
-    <t>SOYOIL</t>
+    <t>398</t>
+  </si>
+  <si>
+    <t>Nov 2024</t>
+  </si>
+  <si>
+    <t>Feb 2025</t>
+  </si>
+  <si>
+    <t>May 2025</t>
+  </si>
+  <si>
+    <t>Aug 2025</t>
+  </si>
+  <si>
+    <t>Nov 2025</t>
+  </si>
+  <si>
+    <t>Feb 2026</t>
+  </si>
+  <si>
+    <t>May 2026</t>
+  </si>
+  <si>
+    <t>Aug 2026</t>
+  </si>
+  <si>
+    <t>Nov 2026</t>
+  </si>
+  <si>
+    <t>Feb 2027</t>
+  </si>
+  <si>
+    <t>Total OI</t>
+  </si>
+  <si>
+    <t>9 Aug 2024</t>
+  </si>
+  <si>
+    <t>8 Aug 2024</t>
+  </si>
+  <si>
+    <t>7 Aug 2024</t>
+  </si>
+  <si>
+    <t>6 Aug 2024</t>
+  </si>
+  <si>
+    <t>Sep 2024</t>
+  </si>
+  <si>
+    <t>Dec 2024</t>
+  </si>
+  <si>
+    <t>Mar 2025</t>
+  </si>
+  <si>
+    <t>Sep 2025</t>
+  </si>
+  <si>
+    <t>Dec 2025</t>
+  </si>
+  <si>
+    <t>Mar 2026</t>
+  </si>
+  <si>
+    <t>Sep 2026</t>
+  </si>
+  <si>
+    <t>Dec 2026</t>
+  </si>
+  <si>
+    <t>Mar 2027</t>
+  </si>
+  <si>
+    <t>May 2027</t>
+  </si>
+  <si>
+    <t>Sep 202024</t>
+  </si>
+  <si>
+    <t>Dec 202024</t>
+  </si>
+  <si>
+    <t>Mar 202025</t>
+  </si>
+  <si>
+    <t>May 202025</t>
+  </si>
+  <si>
+    <t>Sep 202025</t>
+  </si>
+  <si>
+    <t>Dec 202025</t>
+  </si>
+  <si>
+    <t>Mar 202026</t>
+  </si>
+  <si>
+    <t>May 202026</t>
+  </si>
+  <si>
+    <t>Sep 202026</t>
+  </si>
+  <si>
+    <t>Dec 202026</t>
+  </si>
+  <si>
+    <t>Mar 202027</t>
+  </si>
+  <si>
+    <t>May 202027</t>
+  </si>
+  <si>
+    <t>5 Aug 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,17 +839,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -646,14 +898,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,28 +1238,28 @@
     <col min="19" max="19" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
@@ -1054,2931 +1320,3812 @@
         <f>SRW!M1</f>
         <v>Change in OI</v>
       </c>
-      <c r="T2" s="2"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>SRW!A2</f>
-        <v>07 Aug 2024</v>
-      </c>
-      <c r="B3" s="2" t="str">
+        <v>08 Aug 2024</v>
+      </c>
+      <c r="B3" s="5" t="str">
         <f>SRW!B2</f>
-        <v>-10,478</v>
-      </c>
-      <c r="C3" s="2" t="str">
+        <v>-12405</v>
+      </c>
+      <c r="C3" s="5" t="str">
         <f>SRW!C2</f>
-        <v>-791</v>
-      </c>
-      <c r="D3" s="2" t="str">
+        <v>-93</v>
+      </c>
+      <c r="D3" s="5" t="str">
         <f>SRW!D2</f>
-        <v>+1,465</v>
-      </c>
-      <c r="E3" s="2">
+        <v>2831</v>
+      </c>
+      <c r="E3" s="5" t="str">
         <f>SRW!E2</f>
-        <v>998</v>
-      </c>
-      <c r="F3" s="2">
+        <v>1202</v>
+      </c>
+      <c r="F3" s="5">
         <f>SRW!F2</f>
-        <v>400</v>
-      </c>
-      <c r="G3" s="2">
+        <v>243</v>
+      </c>
+      <c r="G3" s="5">
         <f>SRW!G2</f>
-        <v>-9</v>
-      </c>
-      <c r="H3" s="2">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5">
         <f>SRW!H2</f>
-        <v>17</v>
-      </c>
-      <c r="I3" s="2">
+        <v>86</v>
+      </c>
+      <c r="I3" s="5">
         <f>SRW!I2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
+        <v>25</v>
+      </c>
+      <c r="J3" s="5">
         <f>SRW!J2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="5">
         <f>SRW!K2</f>
         <v>0</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3">
         <f>SRW!L2</f>
-        <v>423149</v>
-      </c>
-      <c r="S3" s="2">
+        <v>415084</v>
+      </c>
+      <c r="S3" s="3">
         <f>SRW!M2</f>
-        <v>-8398</v>
-      </c>
-      <c r="T3" s="2"/>
+        <v>-8065</v>
+      </c>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="str">
         <f>SRW!A3</f>
-        <v>06 Aug 2024</v>
-      </c>
-      <c r="B4" s="2" t="str">
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B4" s="5" t="str">
         <f>SRW!B3</f>
-        <v>-3,407</v>
-      </c>
-      <c r="C4" s="2" t="str">
+        <v>-10,478</v>
+      </c>
+      <c r="C4" s="5" t="str">
         <f>SRW!C3</f>
-        <v>-1,496</v>
-      </c>
-      <c r="D4" s="2" t="str">
+        <v>-791</v>
+      </c>
+      <c r="D4" s="5" t="str">
         <f>SRW!D3</f>
-        <v>+459</v>
-      </c>
-      <c r="E4" s="2">
+        <v>+1,465</v>
+      </c>
+      <c r="E4" s="5" t="str">
         <f>SRW!E3</f>
-        <v>-57</v>
-      </c>
-      <c r="F4" s="2">
+        <v>998</v>
+      </c>
+      <c r="F4" s="5">
         <f>SRW!F3</f>
-        <v>447</v>
-      </c>
-      <c r="G4" s="2">
+        <v>400</v>
+      </c>
+      <c r="G4" s="5">
         <f>SRW!G3</f>
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
+        <v>-9</v>
+      </c>
+      <c r="H4" s="5">
         <f>SRW!H3</f>
-        <v>14</v>
-      </c>
-      <c r="I4" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5">
         <f>SRW!I3</f>
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
         <f>SRW!J3</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="5">
         <f>SRW!K3</f>
         <v>0</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
         <f>SRW!L3</f>
-        <v>431547</v>
-      </c>
-      <c r="S4" s="2">
+        <v>423149</v>
+      </c>
+      <c r="S4" s="3">
         <f>SRW!M3</f>
-        <v>-4019</v>
-      </c>
-      <c r="T4" s="2"/>
+        <v>-8398</v>
+      </c>
+      <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>SRW!A4</f>
-        <v>05 Aug 2024</v>
-      </c>
-      <c r="B5" s="2" t="str">
+        <v>06 Aug 2024</v>
+      </c>
+      <c r="B5" s="5" t="str">
         <f>SRW!B4</f>
-        <v>-4,820</v>
-      </c>
-      <c r="C5" s="2" t="str">
+        <v>-3,407</v>
+      </c>
+      <c r="C5" s="5" t="str">
         <f>SRW!C4</f>
-        <v>+422</v>
-      </c>
-      <c r="D5" s="2" t="str">
+        <v>-1,496</v>
+      </c>
+      <c r="D5" s="5" t="str">
         <f>SRW!D4</f>
-        <v>+384</v>
-      </c>
-      <c r="E5" s="2">
+        <v>+459</v>
+      </c>
+      <c r="E5" s="5" t="str">
         <f>SRW!E4</f>
-        <v>161</v>
-      </c>
-      <c r="F5" s="2">
+        <v>-57</v>
+      </c>
+      <c r="F5" s="5">
         <f>SRW!F4</f>
-        <v>458</v>
-      </c>
-      <c r="G5" s="2">
+        <v>447</v>
+      </c>
+      <c r="G5" s="5">
         <f>SRW!G4</f>
-        <v>-45</v>
-      </c>
-      <c r="H5" s="2">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
         <f>SRW!H4</f>
-        <v>-2</v>
-      </c>
-      <c r="I5" s="2">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5">
         <f>SRW!I4</f>
-        <v>32</v>
-      </c>
-      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5">
         <f>SRW!J4</f>
         <v>0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="5">
         <f>SRW!K4</f>
         <v>0</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
         <f>SRW!L4</f>
-        <v>435566</v>
-      </c>
-      <c r="S5" s="2">
+        <v>431547</v>
+      </c>
+      <c r="S5" s="3">
         <f>SRW!M4</f>
-        <v>-3410</v>
-      </c>
-      <c r="T5" s="2"/>
+        <v>-4019</v>
+      </c>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="str">
         <f>SRW!A5</f>
-        <v>02 Aug 2024</v>
-      </c>
-      <c r="B6" s="2" t="str">
+        <v>05 Aug 2024</v>
+      </c>
+      <c r="B6" s="5" t="str">
         <f>SRW!B5</f>
-        <v>-3,078</v>
-      </c>
-      <c r="C6" s="2" t="str">
+        <v>-4,820</v>
+      </c>
+      <c r="C6" s="5" t="str">
         <f>SRW!C5</f>
-        <v>+2,270</v>
-      </c>
-      <c r="D6" s="2" t="str">
+        <v>+422</v>
+      </c>
+      <c r="D6" s="5" t="str">
         <f>SRW!D5</f>
-        <v>-118</v>
-      </c>
-      <c r="E6" s="2">
+        <v>+384</v>
+      </c>
+      <c r="E6" s="5" t="str">
         <f>SRW!E5</f>
-        <v>-7</v>
-      </c>
-      <c r="F6" s="2">
+        <v>161</v>
+      </c>
+      <c r="F6" s="5">
         <f>SRW!F5</f>
-        <v>19</v>
-      </c>
-      <c r="G6" s="2">
+        <v>458</v>
+      </c>
+      <c r="G6" s="5">
         <f>SRW!G5</f>
-        <v>-31</v>
-      </c>
-      <c r="H6" s="2">
+        <v>-45</v>
+      </c>
+      <c r="H6" s="5">
         <f>SRW!H5</f>
-        <v>-52</v>
-      </c>
-      <c r="I6" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I6" s="5">
         <f>SRW!I5</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5">
         <f>SRW!J5</f>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="5">
         <f>SRW!K5</f>
         <v>0</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
         <f>SRW!L5</f>
-        <v>438976</v>
-      </c>
-      <c r="S6" s="2">
+        <v>435566</v>
+      </c>
+      <c r="S6" s="3">
         <f>SRW!M5</f>
-        <v>-996</v>
-      </c>
-      <c r="T6" s="2"/>
+        <v>-3410</v>
+      </c>
+      <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="str">
         <f>SRW!A6</f>
-        <v>01 Aug 2024</v>
-      </c>
-      <c r="B7" s="2" t="str">
+        <v>02 Aug 2024</v>
+      </c>
+      <c r="B7" s="5" t="str">
         <f>SRW!B6</f>
-        <v>+1,485</v>
-      </c>
-      <c r="C7" s="2" t="str">
+        <v>-3,078</v>
+      </c>
+      <c r="C7" s="5" t="str">
         <f>SRW!C6</f>
-        <v>+2,881</v>
-      </c>
-      <c r="D7" s="2" t="str">
+        <v>+2,270</v>
+      </c>
+      <c r="D7" s="5" t="str">
         <f>SRW!D6</f>
-        <v>+350</v>
-      </c>
-      <c r="E7" s="2">
+        <v>-118</v>
+      </c>
+      <c r="E7" s="5" t="str">
         <f>SRW!E6</f>
-        <v>398</v>
-      </c>
-      <c r="F7" s="2">
+        <v>-7</v>
+      </c>
+      <c r="F7" s="5">
         <f>SRW!F6</f>
-        <v>-9</v>
-      </c>
-      <c r="G7" s="2">
+        <v>19</v>
+      </c>
+      <c r="G7" s="5">
         <f>SRW!G6</f>
-        <v>39</v>
-      </c>
-      <c r="H7" s="2">
+        <v>-31</v>
+      </c>
+      <c r="H7" s="5">
         <f>SRW!H6</f>
-        <v>18</v>
-      </c>
-      <c r="I7" s="2">
+        <v>-52</v>
+      </c>
+      <c r="I7" s="5">
         <f>SRW!I6</f>
-        <v>8</v>
-      </c>
-      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
         <f>SRW!J6</f>
-        <v>2</v>
-      </c>
-      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <f>SRW!K6</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
+        <f>SRW!L6</f>
+        <v>438976</v>
+      </c>
+      <c r="S7" s="3">
+        <f>SRW!M6</f>
+        <v>-996</v>
+      </c>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <f>SRW!L6</f>
-        <v>439972</v>
-      </c>
-      <c r="S7" s="2">
-        <f>SRW!M6</f>
-        <v>5173</v>
-      </c>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="str">
+      <c r="A11" s="3" t="str">
         <f>HRW!A1</f>
         <v>Date</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="3" t="str">
         <f>HRW!B1</f>
         <v>SEP 2024</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="3" t="str">
         <f>HRW!C1</f>
         <v>DEC 2024</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="3" t="str">
         <f>HRW!D1</f>
         <v>MAR 2025</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="E11" s="3" t="str">
         <f>HRW!E1</f>
         <v>MAY 2025</v>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="3" t="str">
         <f>HRW!F1</f>
         <v>JUL 2025</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="3" t="str">
         <f>HRW!G1</f>
         <v>SEP 2025</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="3" t="str">
         <f>HRW!H1</f>
         <v>DEC 2025</v>
       </c>
-      <c r="I11" s="2" t="str">
+      <c r="I11" s="3" t="str">
         <f>HRW!I1</f>
         <v>MAR 2026</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="3" t="str">
         <f>HRW!J1</f>
         <v>MAY 2026</v>
       </c>
-      <c r="K11" s="2" t="str">
+      <c r="K11" s="3" t="str">
         <f>HRW!K1</f>
         <v>JUL 2026</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="str">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="str">
         <f>HRW!L1</f>
         <v>Market Open Interest</v>
       </c>
-      <c r="S11" s="2" t="str">
+      <c r="S11" s="3" t="str">
         <f>HRW!M1</f>
         <v>Change in OI</v>
       </c>
-      <c r="T11" s="2"/>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="str">
+      <c r="A12" s="3" t="str">
         <f>HRW!A2</f>
+        <v>08 Aug 2024</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>HRW!B2</f>
+        <v>-9624</v>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>HRW!C2</f>
+        <v>1141</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>HRW!D2</f>
+        <v>2540</v>
+      </c>
+      <c r="E12" s="3">
+        <f>HRW!E2</f>
+        <v>392</v>
+      </c>
+      <c r="F12" s="3">
+        <f>HRW!F2</f>
+        <v>339</v>
+      </c>
+      <c r="G12" s="3">
+        <f>HRW!G2</f>
+        <v>18</v>
+      </c>
+      <c r="H12" s="3">
+        <f>HRW!H2</f>
+        <v>13</v>
+      </c>
+      <c r="I12" s="3">
+        <f>HRW!I2</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <f>HRW!J2</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <f>HRW!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
+        <f>HRW!L2</f>
+        <v>257659</v>
+      </c>
+      <c r="S12" s="3">
+        <f>HRW!M2</f>
+        <v>-5181</v>
+      </c>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="str">
+        <f>HRW!A3</f>
         <v>07 Aug 2024</v>
       </c>
-      <c r="B12" s="2" t="str">
-        <f>HRW!B2</f>
+      <c r="B13" s="3" t="str">
+        <f>HRW!B3</f>
         <v>-11,508</v>
       </c>
-      <c r="C12" s="2" t="str">
-        <f>HRW!C2</f>
+      <c r="C13" s="3" t="str">
+        <f>HRW!C3</f>
         <v>+7,211</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f>HRW!D2</f>
+      <c r="D13" s="3" t="str">
+        <f>HRW!D3</f>
         <v>+1,282</v>
       </c>
-      <c r="E12" s="2">
-        <f>HRW!E2</f>
+      <c r="E13" s="3">
+        <f>HRW!E3</f>
         <v>361</v>
       </c>
-      <c r="F12" s="2">
-        <f>HRW!F2</f>
+      <c r="F13" s="3">
+        <f>HRW!F3</f>
         <v>461</v>
       </c>
-      <c r="G12" s="2">
-        <f>HRW!G2</f>
+      <c r="G13" s="3">
+        <f>HRW!G3</f>
         <v>20</v>
       </c>
-      <c r="H12" s="2">
-        <f>HRW!H2</f>
+      <c r="H13" s="3">
+        <f>HRW!H3</f>
         <v>7</v>
       </c>
-      <c r="I12" s="2">
-        <f>HRW!I2</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <f>HRW!J2</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <f>HRW!K2</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2">
-        <f>HRW!L2</f>
+      <c r="I13" s="3">
+        <f>HRW!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f>HRW!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <f>HRW!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
+        <f>HRW!L3</f>
         <v>262840</v>
       </c>
-      <c r="S12" s="2">
-        <f>HRW!M2</f>
+      <c r="S13" s="3">
+        <f>HRW!M3</f>
         <v>-2166</v>
       </c>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="str">
-        <f>HRW!A3</f>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="str">
+        <f>HRW!A4</f>
         <v>06 Aug 2024</v>
       </c>
-      <c r="B13" s="2" t="str">
-        <f>HRW!B3</f>
+      <c r="B14" s="3" t="str">
+        <f>HRW!B4</f>
         <v>-2,171</v>
       </c>
-      <c r="C13" s="2" t="str">
-        <f>HRW!C3</f>
+      <c r="C14" s="3" t="str">
+        <f>HRW!C4</f>
         <v>+4,212</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f>HRW!D3</f>
+      <c r="D14" s="3" t="str">
+        <f>HRW!D4</f>
         <v>+546</v>
       </c>
-      <c r="E13" s="2">
-        <f>HRW!E3</f>
+      <c r="E14" s="3">
+        <f>HRW!E4</f>
         <v>225</v>
       </c>
-      <c r="F13" s="2">
-        <f>HRW!F3</f>
+      <c r="F14" s="3">
+        <f>HRW!F4</f>
         <v>495</v>
       </c>
-      <c r="G13" s="2">
-        <f>HRW!G3</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <f>HRW!H3</f>
+      <c r="G14" s="3">
+        <f>HRW!G4</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f>HRW!H4</f>
         <v>4</v>
       </c>
-      <c r="I13" s="2">
-        <f>HRW!I3</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <f>HRW!J3</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f>HRW!K3</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2">
-        <f>HRW!L3</f>
+      <c r="I14" s="3">
+        <f>HRW!I4</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f>HRW!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f>HRW!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <f>HRW!L4</f>
         <v>265006</v>
       </c>
-      <c r="S13" s="2">
-        <f>HRW!M3</f>
+      <c r="S14" s="3">
+        <f>HRW!M4</f>
         <v>3311</v>
       </c>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="str">
-        <f>HRW!A4</f>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="str">
+        <f>HRW!A5</f>
         <v>05 Aug 2024</v>
       </c>
-      <c r="B14" s="2" t="str">
-        <f>HRW!B4</f>
+      <c r="B15" s="3" t="str">
+        <f>HRW!B5</f>
         <v>-838</v>
       </c>
-      <c r="C14" s="2" t="str">
-        <f>HRW!C4</f>
+      <c r="C15" s="3" t="str">
+        <f>HRW!C5</f>
         <v>+2,192</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f>HRW!D4</f>
+      <c r="D15" s="3" t="str">
+        <f>HRW!D5</f>
         <v>+913</v>
       </c>
-      <c r="E14" s="2">
-        <f>HRW!E4</f>
+      <c r="E15" s="3">
+        <f>HRW!E5</f>
         <v>281</v>
       </c>
-      <c r="F14" s="2">
-        <f>HRW!F4</f>
+      <c r="F15" s="3">
+        <f>HRW!F5</f>
         <v>83</v>
       </c>
-      <c r="G14" s="2">
-        <f>HRW!G4</f>
+      <c r="G15" s="3">
+        <f>HRW!G5</f>
         <v>88</v>
       </c>
-      <c r="H14" s="2">
-        <f>HRW!H4</f>
+      <c r="H15" s="3">
+        <f>HRW!H5</f>
         <v>9</v>
       </c>
-      <c r="I14" s="2">
-        <f>HRW!I4</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <f>HRW!J4</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <f>HRW!K4</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2">
-        <f>HRW!L4</f>
+      <c r="I15" s="3">
+        <f>HRW!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f>HRW!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <f>HRW!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3">
+        <f>HRW!L5</f>
         <v>261695</v>
       </c>
-      <c r="S14" s="2">
-        <f>HRW!M4</f>
+      <c r="S15" s="3">
+        <f>HRW!M5</f>
         <v>2728</v>
       </c>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="str">
-        <f>HRW!A5</f>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="str">
+        <f>HRW!A6</f>
         <v>02 Aug 2024</v>
       </c>
-      <c r="B15" s="2" t="str">
-        <f>HRW!B5</f>
+      <c r="B16" s="3" t="str">
+        <f>HRW!B6</f>
         <v>+1,403</v>
       </c>
-      <c r="C15" s="2" t="str">
-        <f>HRW!C5</f>
+      <c r="C16" s="3" t="str">
+        <f>HRW!C6</f>
         <v>-1,070</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f>HRW!D5</f>
+      <c r="D16" s="3" t="str">
+        <f>HRW!D6</f>
         <v>+1,064</v>
       </c>
-      <c r="E15" s="2">
-        <f>HRW!E5</f>
+      <c r="E16" s="3">
+        <f>HRW!E6</f>
         <v>213</v>
       </c>
-      <c r="F15" s="2">
-        <f>HRW!F5</f>
+      <c r="F16" s="3">
+        <f>HRW!F6</f>
         <v>183</v>
       </c>
-      <c r="G15" s="2">
-        <f>HRW!G5</f>
+      <c r="G16" s="3">
+        <f>HRW!G6</f>
         <v>5</v>
       </c>
-      <c r="H15" s="2">
-        <f>HRW!H5</f>
-        <v>-1</v>
-      </c>
-      <c r="I15" s="2">
-        <f>HRW!I5</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <f>HRW!J5</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <f>HRW!K5</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2">
-        <f>HRW!L5</f>
-        <v>258967</v>
-      </c>
-      <c r="S15" s="2">
-        <f>HRW!M5</f>
-        <v>1797</v>
-      </c>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="str">
-        <f>HRW!A6</f>
-        <v>01 Aug 2024</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>HRW!B6</f>
-        <v>+917</v>
-      </c>
-      <c r="C16" s="2" t="str">
-        <f>HRW!C6</f>
-        <v>+1,599</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>HRW!D6</f>
-        <v>+1,108</v>
-      </c>
-      <c r="E16" s="2">
-        <f>HRW!E6</f>
-        <v>320</v>
-      </c>
-      <c r="F16" s="2">
-        <f>HRW!F6</f>
-        <v>13</v>
-      </c>
-      <c r="G16" s="2">
-        <f>HRW!G6</f>
-        <v>-4</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <f>HRW!H6</f>
         <v>-1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <f>HRW!I6</f>
         <v>0</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <f>HRW!J6</f>
         <v>0</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="3">
         <f>HRW!K6</f>
         <v>0</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
         <f>HRW!L6</f>
-        <v>257170</v>
-      </c>
-      <c r="S16" s="2">
+        <v>258967</v>
+      </c>
+      <c r="S16" s="3">
         <f>HRW!M6</f>
-        <v>3952</v>
-      </c>
-      <c r="T16" s="2"/>
+        <v>1797</v>
+      </c>
+      <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="2"/>
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="str">
+      <c r="A20" s="3" t="str">
         <f>Corn!A1</f>
         <v>Date</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="3" t="str">
         <f>Corn!B1</f>
         <v>SEP 2024</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="3" t="str">
         <f>Corn!C1</f>
         <v>DEC 2024</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" s="3" t="str">
         <f>Corn!D1</f>
         <v>MAR 2025</v>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="E20" s="3" t="str">
         <f>Corn!E1</f>
         <v>MAY 2025</v>
       </c>
-      <c r="F20" s="2" t="str">
+      <c r="F20" s="3" t="str">
         <f>Corn!F1</f>
         <v>JUL 2025</v>
       </c>
-      <c r="G20" s="2" t="str">
+      <c r="G20" s="3" t="str">
         <f>Corn!G1</f>
         <v>SEP 2025</v>
       </c>
-      <c r="H20" s="2" t="str">
+      <c r="H20" s="3" t="str">
         <f>Corn!H1</f>
         <v>DEC 2025</v>
       </c>
-      <c r="I20" s="2" t="str">
+      <c r="I20" s="3" t="str">
         <f>Corn!I1</f>
         <v>MAR 2026</v>
       </c>
-      <c r="J20" s="2" t="str">
+      <c r="J20" s="3" t="str">
         <f>Corn!J1</f>
         <v>MAY 2026</v>
       </c>
-      <c r="K20" s="2" t="str">
+      <c r="K20" s="3" t="str">
         <f>Corn!K1</f>
         <v>JUL 2026</v>
       </c>
-      <c r="L20" s="2" t="str">
+      <c r="L20" s="3" t="str">
         <f>Corn!L1</f>
         <v>SEP 2026</v>
       </c>
-      <c r="M20" s="2" t="str">
+      <c r="M20" s="3" t="str">
         <f>Corn!M1</f>
         <v>DEC 2026</v>
       </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="str">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3" t="str">
         <f>Corn!N1</f>
         <v>Market Open Interest</v>
       </c>
-      <c r="S20" s="2" t="str">
+      <c r="S20" s="3" t="str">
         <f>Corn!O1</f>
         <v>Change in OI</v>
       </c>
-      <c r="T20" s="2"/>
+      <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="str">
+      <c r="A21" s="3" t="str">
         <f>Corn!A2</f>
-        <v>07 Aug 2024</v>
-      </c>
-      <c r="B21" s="2" t="str">
+        <v>08 Aug 2024</v>
+      </c>
+      <c r="B21" s="3" t="str">
         <f>Corn!B2</f>
-        <v>-28,970</v>
-      </c>
-      <c r="C21" s="2" t="str">
+        <v>-19322</v>
+      </c>
+      <c r="C21" s="3" t="str">
         <f>Corn!C2</f>
-        <v>+8,561</v>
-      </c>
-      <c r="D21" s="2" t="str">
+        <v>3589</v>
+      </c>
+      <c r="D21" s="3" t="str">
         <f>Corn!D2</f>
-        <v>+6,719</v>
-      </c>
-      <c r="E21" s="2" t="str">
+        <v>4406</v>
+      </c>
+      <c r="E21" s="3" t="str">
         <f>Corn!E2</f>
-        <v>533</v>
-      </c>
-      <c r="F21" s="2" t="str">
+        <v>1183</v>
+      </c>
+      <c r="F21" s="3" t="str">
         <f>Corn!F2</f>
-        <v>406</v>
-      </c>
-      <c r="G21" s="2" t="str">
+        <v>52</v>
+      </c>
+      <c r="G21" s="3" t="str">
         <f>Corn!G2</f>
-        <v>+1,692</v>
-      </c>
-      <c r="H21" s="2" t="str">
+        <v>1900</v>
+      </c>
+      <c r="H21" s="3" t="str">
         <f>Corn!H2</f>
-        <v>899</v>
-      </c>
-      <c r="I21" s="2">
+        <v>594</v>
+      </c>
+      <c r="I21" s="3">
         <f>Corn!I2</f>
-        <v>-18</v>
-      </c>
-      <c r="J21" s="2">
+        <v>9</v>
+      </c>
+      <c r="J21" s="3">
         <f>Corn!J2</f>
         <v>2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="3">
         <f>Corn!K2</f>
+        <v>13</v>
+      </c>
+      <c r="L21" s="3">
+        <f>Corn!L2</f>
+        <v>-5</v>
+      </c>
+      <c r="M21" s="3">
+        <f>Corn!M2</f>
+        <v>15</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3">
+        <f>Corn!N2</f>
+        <v>1560632</v>
+      </c>
+      <c r="S21" s="3">
+        <f>Corn!O2</f>
+        <v>-7564</v>
+      </c>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="str">
+        <f>Corn!A3</f>
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B22" s="3" t="str">
+        <f>Corn!B3</f>
+        <v>-28,970</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f>Corn!C3</f>
+        <v>+8,561</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f>Corn!D3</f>
+        <v>+6,719</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f>Corn!E3</f>
+        <v>533</v>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f>Corn!F3</f>
+        <v>406</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f>Corn!G3</f>
+        <v>+1,692</v>
+      </c>
+      <c r="H22" s="3" t="str">
+        <f>Corn!H3</f>
+        <v>899</v>
+      </c>
+      <c r="I22" s="3">
+        <f>Corn!I3</f>
+        <v>-18</v>
+      </c>
+      <c r="J22" s="3">
+        <f>Corn!J3</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <f>Corn!K3</f>
         <v>5</v>
       </c>
-      <c r="L21" s="2">
-        <f>Corn!L2</f>
+      <c r="L22" s="3">
+        <f>Corn!L3</f>
         <v>3</v>
       </c>
-      <c r="M21" s="2">
-        <f>Corn!M2</f>
+      <c r="M22" s="3">
+        <f>Corn!M3</f>
         <v>60</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2">
-        <f>Corn!N2</f>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3">
+        <f>Corn!N3</f>
         <v>1568196</v>
       </c>
-      <c r="S21" s="2">
-        <f>Corn!O2</f>
+      <c r="S22" s="3">
+        <f>Corn!O3</f>
         <v>-10108</v>
       </c>
-      <c r="T21" s="2"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="str">
-        <f>Corn!A3</f>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="str">
+        <f>Corn!A4</f>
         <v>06 Aug 2024</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f>Corn!B3</f>
+      <c r="B23" s="3" t="str">
+        <f>Corn!B4</f>
         <v>-7,441</v>
       </c>
-      <c r="C22" s="2" t="str">
-        <f>Corn!C3</f>
+      <c r="C23" s="3" t="str">
+        <f>Corn!C4</f>
         <v>-1,495</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f>Corn!D3</f>
+      <c r="D23" s="3" t="str">
+        <f>Corn!D4</f>
         <v>+1,006</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f>Corn!E3</f>
+      <c r="E23" s="3" t="str">
+        <f>Corn!E4</f>
         <v>279</v>
       </c>
-      <c r="F22" s="2" t="str">
-        <f>Corn!F3</f>
+      <c r="F23" s="3" t="str">
+        <f>Corn!F4</f>
         <v>836</v>
       </c>
-      <c r="G22" s="2" t="str">
-        <f>Corn!G3</f>
+      <c r="G23" s="3" t="str">
+        <f>Corn!G4</f>
         <v>+518</v>
       </c>
-      <c r="H22" s="2" t="str">
-        <f>Corn!H3</f>
+      <c r="H23" s="3" t="str">
+        <f>Corn!H4</f>
         <v>+1,092</v>
       </c>
-      <c r="I22" s="2">
-        <f>Corn!I3</f>
+      <c r="I23" s="3">
+        <f>Corn!I4</f>
         <v>81</v>
       </c>
-      <c r="J22" s="2">
-        <f>Corn!J3</f>
+      <c r="J23" s="3">
+        <f>Corn!J4</f>
         <v>-2</v>
       </c>
-      <c r="K22" s="2">
-        <f>Corn!K3</f>
+      <c r="K23" s="3">
+        <f>Corn!K4</f>
         <v>2</v>
       </c>
-      <c r="L22" s="2">
-        <f>Corn!L3</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <f>Corn!M3</f>
+      <c r="L23" s="3">
+        <f>Corn!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f>Corn!M4</f>
         <v>20</v>
       </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2">
-        <f>Corn!N3</f>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3">
+        <f>Corn!N4</f>
         <v>1578304</v>
       </c>
-      <c r="S22" s="2">
-        <f>Corn!O3</f>
+      <c r="S23" s="3">
+        <f>Corn!O4</f>
         <v>-5104</v>
       </c>
-      <c r="T22" s="2"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="str">
-        <f>Corn!A4</f>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="str">
+        <f>Corn!A5</f>
         <v>05 Aug 2024</v>
       </c>
-      <c r="B23" s="2" t="str">
-        <f>Corn!B4</f>
+      <c r="B24" s="3" t="str">
+        <f>Corn!B5</f>
         <v>-17,766</v>
       </c>
-      <c r="C23" s="2" t="str">
-        <f>Corn!C4</f>
+      <c r="C24" s="3" t="str">
+        <f>Corn!C5</f>
         <v>-5,775</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f>Corn!D4</f>
+      <c r="D24" s="3" t="str">
+        <f>Corn!D5</f>
         <v>-257</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f>Corn!E4</f>
+      <c r="E24" s="3" t="str">
+        <f>Corn!E5</f>
         <v>239</v>
       </c>
-      <c r="F23" s="2" t="str">
-        <f>Corn!F4</f>
+      <c r="F24" s="3" t="str">
+        <f>Corn!F5</f>
         <v>511</v>
       </c>
-      <c r="G23" s="2" t="str">
-        <f>Corn!G4</f>
+      <c r="G24" s="3" t="str">
+        <f>Corn!G5</f>
         <v>+953</v>
       </c>
-      <c r="H23" s="2" t="str">
-        <f>Corn!H4</f>
+      <c r="H24" s="3" t="str">
+        <f>Corn!H5</f>
         <v>+1,538</v>
       </c>
-      <c r="I23" s="2">
-        <f>Corn!I4</f>
+      <c r="I24" s="3">
+        <f>Corn!I5</f>
         <v>25</v>
       </c>
-      <c r="J23" s="2">
-        <f>Corn!J4</f>
+      <c r="J24" s="3">
+        <f>Corn!J5</f>
         <v>1</v>
       </c>
-      <c r="K23" s="2">
-        <f>Corn!K4</f>
+      <c r="K24" s="3">
+        <f>Corn!K5</f>
         <v>18</v>
       </c>
-      <c r="L23" s="2">
-        <f>Corn!L4</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <f>Corn!M4</f>
+      <c r="L24" s="3">
+        <f>Corn!L5</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <f>Corn!M5</f>
         <v>63</v>
       </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2">
-        <f>Corn!N4</f>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3">
+        <f>Corn!N5</f>
         <v>1583408</v>
       </c>
-      <c r="S23" s="2">
-        <f>Corn!O4</f>
+      <c r="S24" s="3">
+        <f>Corn!O5</f>
         <v>-20442</v>
       </c>
-      <c r="T23" s="2"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="str">
-        <f>Corn!A5</f>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="str">
+        <f>Corn!A6</f>
         <v>02 Aug 2024</v>
       </c>
-      <c r="B24" s="2" t="str">
-        <f>Corn!B5</f>
+      <c r="B25" s="3" t="str">
+        <f>Corn!B6</f>
         <v>-3,572</v>
       </c>
-      <c r="C24" s="2" t="str">
-        <f>Corn!C5</f>
+      <c r="C25" s="3" t="str">
+        <f>Corn!C6</f>
         <v>+1,925</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f>Corn!D5</f>
+      <c r="D25" s="3" t="str">
+        <f>Corn!D6</f>
         <v>+5,872</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f>Corn!E5</f>
+      <c r="E25" s="3" t="str">
+        <f>Corn!E6</f>
         <v>714</v>
       </c>
-      <c r="F24" s="2" t="str">
-        <f>Corn!F5</f>
+      <c r="F25" s="3" t="str">
+        <f>Corn!F6</f>
         <v>+1,317</v>
       </c>
-      <c r="G24" s="2" t="str">
-        <f>Corn!G5</f>
+      <c r="G25" s="3" t="str">
+        <f>Corn!G6</f>
         <v>+2,238</v>
       </c>
-      <c r="H24" s="2" t="str">
-        <f>Corn!H5</f>
+      <c r="H25" s="3" t="str">
+        <f>Corn!H6</f>
         <v>+1,362</v>
       </c>
-      <c r="I24" s="2">
-        <f>Corn!I5</f>
+      <c r="I25" s="3">
+        <f>Corn!I6</f>
         <v>36</v>
       </c>
-      <c r="J24" s="2">
-        <f>Corn!J5</f>
+      <c r="J25" s="3">
+        <f>Corn!J6</f>
         <v>3</v>
       </c>
-      <c r="K24" s="2">
-        <f>Corn!K5</f>
-        <v>21</v>
-      </c>
-      <c r="L24" s="2">
-        <f>Corn!L5</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <f>Corn!M5</f>
-        <v>68</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2">
-        <f>Corn!N5</f>
-        <v>1603850</v>
-      </c>
-      <c r="S24" s="2">
-        <f>Corn!O5</f>
-        <v>9986</v>
-      </c>
-      <c r="T24" s="2"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="str">
-        <f>Corn!A6</f>
-        <v>01 Aug 2024</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>Corn!B6</f>
-        <v>-6,835</v>
-      </c>
-      <c r="C25" s="2" t="str">
-        <f>Corn!C6</f>
-        <v>-1,211</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f>Corn!D6</f>
-        <v>+1,264</v>
-      </c>
-      <c r="E25" s="2" t="str">
-        <f>Corn!E6</f>
-        <v>+1,291</v>
-      </c>
-      <c r="F25" s="2" t="str">
-        <f>Corn!F6</f>
-        <v>+1,900</v>
-      </c>
-      <c r="G25" s="2" t="str">
-        <f>Corn!G6</f>
-        <v>+1,035</v>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f>Corn!H6</f>
-        <v>+937</v>
-      </c>
-      <c r="I25" s="2">
-        <f>Corn!I6</f>
-        <v>43</v>
-      </c>
-      <c r="J25" s="2">
-        <f>Corn!J6</f>
-        <v>10</v>
-      </c>
-      <c r="K25" s="2">
+      <c r="K25" s="3">
         <f>Corn!K6</f>
         <v>21</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="3">
         <f>Corn!L6</f>
         <v>0</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="3">
         <f>Corn!M6</f>
-        <v>18</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2">
+        <v>68</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3">
         <f>Corn!N6</f>
-        <v>1593864</v>
-      </c>
-      <c r="S25" s="2">
+        <v>1603850</v>
+      </c>
+      <c r="S25" s="3">
         <f>Corn!O6</f>
-        <v>-1526</v>
-      </c>
-      <c r="T25" s="2"/>
+        <v>9986</v>
+      </c>
+      <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="2"/>
+      <c r="A28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="str">
+      <c r="A29" s="3" t="str">
         <f>Soybean!A1</f>
         <v>Date</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="3" t="str">
         <f>Soybean!B1</f>
         <v>AUG 2024</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="3" t="str">
         <f>Soybean!C1</f>
         <v>SEP 2024</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D29" s="3" t="str">
         <f>Soybean!D1</f>
         <v>NOV 2024</v>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="E29" s="3" t="str">
         <f>Soybean!E1</f>
         <v>JAN 2025</v>
       </c>
-      <c r="F29" s="2" t="str">
+      <c r="F29" s="3" t="str">
         <f>Soybean!F1</f>
         <v>MAR 2025</v>
       </c>
-      <c r="G29" s="2" t="str">
+      <c r="G29" s="3" t="str">
         <f>Soybean!G1</f>
         <v>MAY 2025</v>
       </c>
-      <c r="H29" s="2" t="str">
+      <c r="H29" s="3" t="str">
         <f>Soybean!H1</f>
         <v>JUL 2025</v>
       </c>
-      <c r="I29" s="2" t="str">
+      <c r="I29" s="3" t="str">
         <f>Soybean!I1</f>
         <v>AUG 2025</v>
       </c>
-      <c r="J29" s="2" t="str">
+      <c r="J29" s="3" t="str">
         <f>Soybean!J1</f>
         <v>SEP 2025</v>
       </c>
-      <c r="K29" s="2" t="str">
+      <c r="K29" s="3" t="str">
         <f>Soybean!K1</f>
         <v>NOV 2025</v>
       </c>
-      <c r="L29" s="2" t="str">
+      <c r="L29" s="3" t="str">
         <f>Soybean!L1</f>
         <v>JAN 2026</v>
       </c>
-      <c r="M29" s="2" t="str">
+      <c r="M29" s="3" t="str">
         <f>Soybean!M1</f>
         <v>MAR 2026</v>
       </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="str">
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3" t="str">
         <f>Soybean!N1</f>
         <v>Market Open Interest</v>
       </c>
-      <c r="S29" s="2" t="str">
+      <c r="S29" s="3" t="str">
         <f>Soybean!O1</f>
         <v>Change in OI</v>
       </c>
-      <c r="T29" s="2"/>
+      <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="str">
+      <c r="A30" s="3" t="str">
         <f>Soybean!A2</f>
+        <v>08 Aug 2024</v>
+      </c>
+      <c r="B30" s="3">
+        <f>Soybean!B2</f>
+        <v>-92</v>
+      </c>
+      <c r="C30" s="3" t="str">
+        <f>Soybean!C2</f>
+        <v>-1806</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f>Soybean!D2</f>
+        <v>1166</v>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f>Soybean!E2</f>
+        <v>1408</v>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f>Soybean!F2</f>
+        <v>1086</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f>Soybean!G2</f>
+        <v>502</v>
+      </c>
+      <c r="H30" s="3" t="str">
+        <f>Soybean!H2</f>
+        <v>310</v>
+      </c>
+      <c r="I30" s="3">
+        <f>Soybean!I2</f>
+        <v>60</v>
+      </c>
+      <c r="J30" s="3">
+        <f>Soybean!J2</f>
+        <v>61</v>
+      </c>
+      <c r="K30" s="3">
+        <f>Soybean!K2</f>
+        <v>386</v>
+      </c>
+      <c r="L30" s="3">
+        <f>Soybean!L2</f>
+        <v>24</v>
+      </c>
+      <c r="M30" s="3">
+        <f>Soybean!M2</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
+        <f>Soybean!N2</f>
+        <v>792635</v>
+      </c>
+      <c r="S30" s="3">
+        <f>Soybean!O2</f>
+        <v>3107</v>
+      </c>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="str">
+        <f>Soybean!A3</f>
         <v>07 Aug 2024</v>
       </c>
-      <c r="B30" s="2">
-        <f>Soybean!B2</f>
+      <c r="B31" s="3">
+        <f>Soybean!B3</f>
         <v>-61</v>
       </c>
-      <c r="C30" s="2" t="str">
-        <f>Soybean!C2</f>
+      <c r="C31" s="3" t="str">
+        <f>Soybean!C3</f>
         <v>-919</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f>Soybean!D2</f>
+      <c r="D31" s="3" t="str">
+        <f>Soybean!D3</f>
         <v>-983</v>
       </c>
-      <c r="E30" s="2" t="str">
-        <f>Soybean!E2</f>
+      <c r="E31" s="3" t="str">
+        <f>Soybean!E3</f>
         <v>+2,251</v>
       </c>
-      <c r="F30" s="2" t="str">
-        <f>Soybean!F2</f>
+      <c r="F31" s="3" t="str">
+        <f>Soybean!F3</f>
         <v>+1,135</v>
       </c>
-      <c r="G30" s="2" t="str">
-        <f>Soybean!G2</f>
+      <c r="G31" s="3" t="str">
+        <f>Soybean!G3</f>
         <v>434</v>
       </c>
-      <c r="H30" s="2" t="str">
-        <f>Soybean!H2</f>
+      <c r="H31" s="3" t="str">
+        <f>Soybean!H3</f>
         <v>+733</v>
       </c>
-      <c r="I30" s="2">
-        <f>Soybean!I2</f>
+      <c r="I31" s="3">
+        <f>Soybean!I3</f>
         <v>65</v>
       </c>
-      <c r="J30" s="2">
-        <f>Soybean!J2</f>
+      <c r="J31" s="3">
+        <f>Soybean!J3</f>
         <v>-3</v>
       </c>
-      <c r="K30" s="2">
-        <f>Soybean!K2</f>
+      <c r="K31" s="3">
+        <f>Soybean!K3</f>
         <v>44</v>
       </c>
-      <c r="L30" s="2">
-        <f>Soybean!L2</f>
+      <c r="L31" s="3">
+        <f>Soybean!L3</f>
         <v>1</v>
       </c>
-      <c r="M30" s="2">
-        <f>Soybean!M2</f>
+      <c r="M31" s="3">
+        <f>Soybean!M3</f>
         <v>-1</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2">
-        <f>Soybean!N2</f>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3">
+        <f>Soybean!N3</f>
         <v>789528</v>
       </c>
-      <c r="S30" s="2">
-        <f>Soybean!O2</f>
+      <c r="S31" s="3">
+        <f>Soybean!O3</f>
         <v>2696</v>
       </c>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="str">
-        <f>Soybean!A3</f>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="str">
+        <f>Soybean!A4</f>
         <v>06 Aug 2024</v>
       </c>
-      <c r="B31" s="2">
-        <f>Soybean!B3</f>
+      <c r="B32" s="3">
+        <f>Soybean!B4</f>
         <v>-550</v>
       </c>
-      <c r="C31" s="2" t="str">
-        <f>Soybean!C3</f>
+      <c r="C32" s="3" t="str">
+        <f>Soybean!C4</f>
         <v>-96</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f>Soybean!D3</f>
+      <c r="D32" s="3" t="str">
+        <f>Soybean!D4</f>
         <v>-2,229</v>
       </c>
-      <c r="E31" s="2" t="str">
-        <f>Soybean!E3</f>
+      <c r="E32" s="3" t="str">
+        <f>Soybean!E4</f>
         <v>-81</v>
       </c>
-      <c r="F31" s="2" t="str">
-        <f>Soybean!F3</f>
+      <c r="F32" s="3" t="str">
+        <f>Soybean!F4</f>
         <v>34</v>
       </c>
-      <c r="G31" s="2" t="str">
-        <f>Soybean!G3</f>
+      <c r="G32" s="3" t="str">
+        <f>Soybean!G4</f>
         <v>500</v>
       </c>
-      <c r="H31" s="2" t="str">
-        <f>Soybean!H3</f>
+      <c r="H32" s="3" t="str">
+        <f>Soybean!H4</f>
         <v>+1,263</v>
       </c>
-      <c r="I31" s="2">
-        <f>Soybean!I3</f>
+      <c r="I32" s="3">
+        <f>Soybean!I4</f>
         <v>-6</v>
       </c>
-      <c r="J31" s="2">
-        <f>Soybean!J3</f>
+      <c r="J32" s="3">
+        <f>Soybean!J4</f>
         <v>34</v>
       </c>
-      <c r="K31" s="2">
-        <f>Soybean!K3</f>
+      <c r="K32" s="3">
+        <f>Soybean!K4</f>
         <v>96</v>
       </c>
-      <c r="L31" s="2">
-        <f>Soybean!L3</f>
+      <c r="L32" s="3">
+        <f>Soybean!L4</f>
         <v>-1</v>
       </c>
-      <c r="M31" s="2">
-        <f>Soybean!M3</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2">
-        <f>Soybean!N3</f>
+      <c r="M32" s="3">
+        <f>Soybean!M4</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
+        <f>Soybean!N4</f>
         <v>786832</v>
       </c>
-      <c r="S31" s="2">
-        <f>Soybean!O3</f>
+      <c r="S32" s="3">
+        <f>Soybean!O4</f>
         <v>-1034</v>
       </c>
-      <c r="T31" s="2"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="str">
-        <f>Soybean!A4</f>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="str">
+        <f>Soybean!A5</f>
         <v>05 Aug 2024</v>
       </c>
-      <c r="B32" s="2">
-        <f>Soybean!B4</f>
+      <c r="B33" s="3">
+        <f>Soybean!B5</f>
         <v>-48</v>
       </c>
-      <c r="C32" s="2" t="str">
-        <f>Soybean!C4</f>
+      <c r="C33" s="3" t="str">
+        <f>Soybean!C5</f>
         <v>-291</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f>Soybean!D4</f>
+      <c r="D33" s="3" t="str">
+        <f>Soybean!D5</f>
         <v>-9,384</v>
       </c>
-      <c r="E32" s="2" t="str">
-        <f>Soybean!E4</f>
+      <c r="E33" s="3" t="str">
+        <f>Soybean!E5</f>
         <v>+5</v>
       </c>
-      <c r="F32" s="2" t="str">
-        <f>Soybean!F4</f>
+      <c r="F33" s="3" t="str">
+        <f>Soybean!F5</f>
         <v>-1,755</v>
       </c>
-      <c r="G32" s="2" t="str">
-        <f>Soybean!G4</f>
+      <c r="G33" s="3" t="str">
+        <f>Soybean!G5</f>
         <v>+1,358</v>
       </c>
-      <c r="H32" s="2" t="str">
-        <f>Soybean!H4</f>
+      <c r="H33" s="3" t="str">
+        <f>Soybean!H5</f>
         <v>+1,587</v>
       </c>
-      <c r="I32" s="2">
-        <f>Soybean!I4</f>
+      <c r="I33" s="3">
+        <f>Soybean!I5</f>
         <v>2</v>
       </c>
-      <c r="J32" s="2">
-        <f>Soybean!J4</f>
+      <c r="J33" s="3">
+        <f>Soybean!J5</f>
         <v>72</v>
       </c>
-      <c r="K32" s="2">
-        <f>Soybean!K4</f>
+      <c r="K33" s="3">
+        <f>Soybean!K5</f>
         <v>-107</v>
       </c>
-      <c r="L32" s="2">
-        <f>Soybean!L4</f>
+      <c r="L33" s="3">
+        <f>Soybean!L5</f>
         <v>-10</v>
       </c>
-      <c r="M32" s="2">
-        <f>Soybean!M4</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2">
-        <f>Soybean!N4</f>
+      <c r="M33" s="3">
+        <f>Soybean!M5</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3">
+        <f>Soybean!N5</f>
         <v>787866</v>
       </c>
-      <c r="S32" s="2">
-        <f>Soybean!O4</f>
+      <c r="S33" s="3">
+        <f>Soybean!O5</f>
         <v>-8567</v>
       </c>
-      <c r="T32" s="2"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="str">
-        <f>Soybean!A5</f>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="str">
+        <f>Soybean!A6</f>
         <v>02 Aug 2024</v>
       </c>
-      <c r="B33" s="2">
-        <f>Soybean!B5</f>
+      <c r="B34" s="3">
+        <f>Soybean!B6</f>
         <v>-296</v>
       </c>
-      <c r="C33" s="2" t="str">
-        <f>Soybean!C5</f>
+      <c r="C34" s="3" t="str">
+        <f>Soybean!C6</f>
         <v>483</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f>Soybean!D5</f>
+      <c r="D34" s="3" t="str">
+        <f>Soybean!D6</f>
         <v>-3,658</v>
       </c>
-      <c r="E33" s="2" t="str">
-        <f>Soybean!E5</f>
+      <c r="E34" s="3" t="str">
+        <f>Soybean!E6</f>
         <v>-1,506</v>
       </c>
-      <c r="F33" s="2" t="str">
-        <f>Soybean!F5</f>
+      <c r="F34" s="3" t="str">
+        <f>Soybean!F6</f>
         <v>+584</v>
       </c>
-      <c r="G33" s="2" t="str">
-        <f>Soybean!G5</f>
+      <c r="G34" s="3" t="str">
+        <f>Soybean!G6</f>
         <v>+1,359</v>
       </c>
-      <c r="H33" s="2" t="str">
-        <f>Soybean!H5</f>
+      <c r="H34" s="3" t="str">
+        <f>Soybean!H6</f>
         <v>+1,969</v>
       </c>
-      <c r="I33" s="2">
-        <f>Soybean!I5</f>
+      <c r="I34" s="3">
+        <f>Soybean!I6</f>
         <v>31</v>
       </c>
-      <c r="J33" s="2">
-        <f>Soybean!J5</f>
+      <c r="J34" s="3">
+        <f>Soybean!J6</f>
         <v>-6</v>
       </c>
-      <c r="K33" s="2">
-        <f>Soybean!K5</f>
+      <c r="K34" s="3">
+        <f>Soybean!K6</f>
         <v>164</v>
       </c>
-      <c r="L33" s="2">
-        <f>Soybean!L5</f>
+      <c r="L34" s="3">
+        <f>Soybean!L6</f>
         <v>6</v>
       </c>
-      <c r="M33" s="2">
-        <f>Soybean!M5</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2">
-        <f>Soybean!N5</f>
+      <c r="M34" s="3">
+        <f>Soybean!M6</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
+        <f>Soybean!N6</f>
         <v>796433</v>
       </c>
-      <c r="S33" s="2">
-        <f>Soybean!O5</f>
+      <c r="S34" s="3">
+        <f>Soybean!O6</f>
         <v>-869</v>
       </c>
-      <c r="T33" s="2"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="str">
-        <f>Soybean!A6</f>
-        <v>01 Aug 2024</v>
-      </c>
-      <c r="B34" s="2">
-        <f>Soybean!B6</f>
-        <v>-667</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <f>Soybean!C6</f>
-        <v>+1,618</v>
-      </c>
-      <c r="D34" s="2" t="str">
-        <f>Soybean!D6</f>
-        <v>+1,842</v>
-      </c>
-      <c r="E34" s="2" t="str">
-        <f>Soybean!E6</f>
-        <v>+1,505</v>
-      </c>
-      <c r="F34" s="2" t="str">
-        <f>Soybean!F6</f>
-        <v>-69</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f>Soybean!G6</f>
-        <v>+420</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f>Soybean!H6</f>
-        <v>+1,241</v>
-      </c>
-      <c r="I34" s="2">
-        <f>Soybean!I6</f>
-        <v>7</v>
-      </c>
-      <c r="J34" s="2">
-        <f>Soybean!J6</f>
-        <v>6</v>
-      </c>
-      <c r="K34" s="2">
-        <f>Soybean!K6</f>
-        <v>-143</v>
-      </c>
-      <c r="L34" s="2">
-        <f>Soybean!L6</f>
-        <v>-3</v>
-      </c>
-      <c r="M34" s="2">
-        <f>Soybean!M6</f>
-        <v>1</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2">
-        <f>Soybean!N6</f>
-        <v>797302</v>
-      </c>
-      <c r="S34" s="2">
-        <f>Soybean!O6</f>
-        <v>5793</v>
-      </c>
-      <c r="T34" s="2"/>
+      <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="2"/>
+      <c r="A37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="1"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="str">
+      <c r="A38" s="3" t="str">
         <f>Soymeal!A1</f>
         <v>Date</v>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B38" s="3" t="str">
         <f>Soymeal!B1</f>
         <v>AUG 2024</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" s="3" t="str">
         <f>Soymeal!C1</f>
         <v>SEP 2024</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D38" s="3" t="str">
         <f>Soymeal!D1</f>
         <v>OCT 2024</v>
       </c>
-      <c r="E38" s="2" t="str">
+      <c r="E38" s="3" t="str">
         <f>Soymeal!E1</f>
         <v>DEC 2024</v>
       </c>
-      <c r="F38" s="2" t="str">
+      <c r="F38" s="3" t="str">
         <f>Soymeal!F1</f>
         <v>JAN 2025</v>
       </c>
-      <c r="G38" s="2" t="str">
+      <c r="G38" s="3" t="str">
         <f>Soymeal!G1</f>
         <v>MAR 2025</v>
       </c>
-      <c r="H38" s="2" t="str">
+      <c r="H38" s="3" t="str">
         <f>Soymeal!H1</f>
         <v>MAY 2025</v>
       </c>
-      <c r="I38" s="2" t="str">
+      <c r="I38" s="3" t="str">
         <f>Soymeal!I1</f>
         <v>JUL 2025</v>
       </c>
-      <c r="J38" s="2" t="str">
+      <c r="J38" s="3" t="str">
         <f>Soymeal!J1</f>
         <v>AUG 2025</v>
       </c>
-      <c r="K38" s="2" t="str">
+      <c r="K38" s="3" t="str">
         <f>Soymeal!K1</f>
         <v>SEP 2025</v>
       </c>
-      <c r="L38" s="2" t="str">
+      <c r="L38" s="3" t="str">
         <f>Soymeal!L1</f>
         <v>OCT 2025</v>
       </c>
-      <c r="M38" s="2" t="str">
+      <c r="M38" s="3" t="str">
         <f>Soymeal!M1</f>
         <v>DEC 2025</v>
       </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2" t="str">
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3" t="str">
         <f>Soymeal!N1</f>
         <v>Market Open Interest</v>
       </c>
-      <c r="S38" s="2" t="str">
+      <c r="S38" s="3" t="str">
         <f>Soymeal!O1</f>
         <v>Change in OI</v>
       </c>
-      <c r="T38" s="2"/>
+      <c r="T38" s="1"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="str">
+      <c r="A39" s="3" t="str">
         <f>Soymeal!A2</f>
-        <v>07 Aug 2024</v>
-      </c>
-      <c r="B39" s="2" t="str">
+        <v>08 Aug 2024</v>
+      </c>
+      <c r="B39" s="3" t="str">
         <f>Soymeal!B2</f>
-        <v>-324</v>
-      </c>
-      <c r="C39" s="2" t="str">
+        <v>-177</v>
+      </c>
+      <c r="C39" s="3" t="str">
         <f>Soymeal!C2</f>
-        <v>-2,247</v>
-      </c>
-      <c r="D39" s="2" t="str">
+        <v>-2648</v>
+      </c>
+      <c r="D39" s="3" t="str">
         <f>Soymeal!D2</f>
-        <v>627</v>
-      </c>
-      <c r="E39" s="2" t="str">
+        <v>-28</v>
+      </c>
+      <c r="E39" s="3" t="str">
         <f>Soymeal!E2</f>
-        <v>-3,146</v>
-      </c>
-      <c r="F39" s="2">
+        <v>-439</v>
+      </c>
+      <c r="F39" s="3">
         <f>Soymeal!F2</f>
-        <v>-21</v>
-      </c>
-      <c r="G39" s="2" t="str">
+        <v>-256</v>
+      </c>
+      <c r="G39" s="3" t="str">
         <f>Soymeal!G2</f>
-        <v>950</v>
-      </c>
-      <c r="H39" s="2">
+        <v>806</v>
+      </c>
+      <c r="H39" s="3">
         <f>Soymeal!H2</f>
-        <v>267</v>
-      </c>
-      <c r="I39" s="2" t="str">
+        <v>467</v>
+      </c>
+      <c r="I39" s="3" t="str">
         <f>Soymeal!I2</f>
-        <v>144</v>
-      </c>
-      <c r="J39" s="2">
+        <v>268</v>
+      </c>
+      <c r="J39" s="3">
         <f>Soymeal!J2</f>
         <v>98</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="3">
         <f>Soymeal!K2</f>
+        <v>69</v>
+      </c>
+      <c r="L39" s="3">
+        <f>Soymeal!L2</f>
+        <v>25</v>
+      </c>
+      <c r="M39" s="3">
+        <f>Soymeal!M2</f>
+        <v>64</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3">
+        <f>Soymeal!N2</f>
+        <v>512507</v>
+      </c>
+      <c r="S39" s="3">
+        <f>Soymeal!O2</f>
+        <v>-1743</v>
+      </c>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="str">
+        <f>Soymeal!A3</f>
+        <v>07 Aug 2024</v>
+      </c>
+      <c r="B40" s="3" t="str">
+        <f>Soymeal!B3</f>
+        <v>-324</v>
+      </c>
+      <c r="C40" s="3" t="str">
+        <f>Soymeal!C3</f>
+        <v>-2,247</v>
+      </c>
+      <c r="D40" s="3" t="str">
+        <f>Soymeal!D3</f>
+        <v>627</v>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f>Soymeal!E3</f>
+        <v>-3,146</v>
+      </c>
+      <c r="F40" s="3">
+        <f>Soymeal!F3</f>
+        <v>-21</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f>Soymeal!G3</f>
+        <v>950</v>
+      </c>
+      <c r="H40" s="3">
+        <f>Soymeal!H3</f>
+        <v>267</v>
+      </c>
+      <c r="I40" s="3" t="str">
+        <f>Soymeal!I3</f>
+        <v>144</v>
+      </c>
+      <c r="J40" s="3">
+        <f>Soymeal!J3</f>
+        <v>98</v>
+      </c>
+      <c r="K40" s="3">
+        <f>Soymeal!K3</f>
         <v>126</v>
       </c>
-      <c r="L39" s="2">
-        <f>Soymeal!L2</f>
+      <c r="L40" s="3">
+        <f>Soymeal!L3</f>
         <v>83</v>
       </c>
-      <c r="M39" s="2">
-        <f>Soymeal!M2</f>
+      <c r="M40" s="3">
+        <f>Soymeal!M3</f>
         <v>77</v>
       </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2">
-        <f>Soymeal!N2</f>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
+        <f>Soymeal!N3</f>
         <v>514250</v>
       </c>
-      <c r="S39" s="2">
-        <f>Soymeal!O2</f>
+      <c r="S40" s="3">
+        <f>Soymeal!O3</f>
         <v>-3379</v>
       </c>
-      <c r="T39" s="2"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="str">
-        <f>Soymeal!A3</f>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="str">
+        <f>Soymeal!A4</f>
         <v>06 Aug 2024</v>
       </c>
-      <c r="B40" s="2" t="str">
-        <f>Soymeal!B3</f>
+      <c r="B41" s="3" t="str">
+        <f>Soymeal!B4</f>
         <v>-664</v>
       </c>
-      <c r="C40" s="2" t="str">
-        <f>Soymeal!C3</f>
+      <c r="C41" s="3" t="str">
+        <f>Soymeal!C4</f>
         <v>-2,458</v>
       </c>
-      <c r="D40" s="2" t="str">
-        <f>Soymeal!D3</f>
+      <c r="D41" s="3" t="str">
+        <f>Soymeal!D4</f>
         <v>+1,285</v>
       </c>
-      <c r="E40" s="2" t="str">
-        <f>Soymeal!E3</f>
+      <c r="E41" s="3" t="str">
+        <f>Soymeal!E4</f>
         <v>-4,482</v>
       </c>
-      <c r="F40" s="2">
-        <f>Soymeal!F3</f>
+      <c r="F41" s="3">
+        <f>Soymeal!F4</f>
         <v>404</v>
       </c>
-      <c r="G40" s="2" t="str">
-        <f>Soymeal!G3</f>
+      <c r="G41" s="3" t="str">
+        <f>Soymeal!G4</f>
         <v>+1,017</v>
       </c>
-      <c r="H40" s="2">
-        <f>Soymeal!H3</f>
+      <c r="H41" s="3">
+        <f>Soymeal!H4</f>
         <v>243</v>
       </c>
-      <c r="I40" s="2" t="str">
-        <f>Soymeal!I3</f>
+      <c r="I41" s="3" t="str">
+        <f>Soymeal!I4</f>
         <v>+1,004</v>
       </c>
-      <c r="J40" s="2">
-        <f>Soymeal!J3</f>
+      <c r="J41" s="3">
+        <f>Soymeal!J4</f>
         <v>135</v>
       </c>
-      <c r="K40" s="2">
-        <f>Soymeal!K3</f>
+      <c r="K41" s="3">
+        <f>Soymeal!K4</f>
         <v>20</v>
       </c>
-      <c r="L40" s="2">
-        <f>Soymeal!L3</f>
+      <c r="L41" s="3">
+        <f>Soymeal!L4</f>
         <v>35</v>
       </c>
-      <c r="M40" s="2">
-        <f>Soymeal!M3</f>
+      <c r="M41" s="3">
+        <f>Soymeal!M4</f>
         <v>41</v>
       </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2">
-        <f>Soymeal!N3</f>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3">
+        <f>Soymeal!N4</f>
         <v>517629</v>
       </c>
-      <c r="S40" s="2">
-        <f>Soymeal!O3</f>
+      <c r="S41" s="3">
+        <f>Soymeal!O4</f>
         <v>-3437</v>
       </c>
-      <c r="T40" s="2"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="str">
-        <f>Soymeal!A4</f>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="str">
+        <f>Soymeal!A5</f>
         <v>05 Aug 2024</v>
       </c>
-      <c r="B41" s="2" t="str">
-        <f>Soymeal!B4</f>
+      <c r="B42" s="3" t="str">
+        <f>Soymeal!B5</f>
         <v>-870</v>
       </c>
-      <c r="C41" s="2" t="str">
-        <f>Soymeal!C4</f>
+      <c r="C42" s="3" t="str">
+        <f>Soymeal!C5</f>
         <v>-709</v>
       </c>
-      <c r="D41" s="2" t="str">
-        <f>Soymeal!D4</f>
+      <c r="D42" s="3" t="str">
+        <f>Soymeal!D5</f>
         <v>+225</v>
       </c>
-      <c r="E41" s="2" t="str">
-        <f>Soymeal!E4</f>
+      <c r="E42" s="3" t="str">
+        <f>Soymeal!E5</f>
         <v>-7,513</v>
       </c>
-      <c r="F41" s="2">
-        <f>Soymeal!F4</f>
+      <c r="F42" s="3">
+        <f>Soymeal!F5</f>
         <v>-825</v>
       </c>
-      <c r="G41" s="2" t="str">
-        <f>Soymeal!G4</f>
+      <c r="G42" s="3" t="str">
+        <f>Soymeal!G5</f>
         <v>+362</v>
       </c>
-      <c r="H41" s="2">
-        <f>Soymeal!H4</f>
+      <c r="H42" s="3">
+        <f>Soymeal!H5</f>
         <v>550</v>
       </c>
-      <c r="I41" s="2" t="str">
-        <f>Soymeal!I4</f>
+      <c r="I42" s="3" t="str">
+        <f>Soymeal!I5</f>
         <v>+410</v>
       </c>
-      <c r="J41" s="2">
-        <f>Soymeal!J4</f>
+      <c r="J42" s="3">
+        <f>Soymeal!J5</f>
         <v>27</v>
       </c>
-      <c r="K41" s="2">
-        <f>Soymeal!K4</f>
+      <c r="K42" s="3">
+        <f>Soymeal!K5</f>
         <v>6</v>
       </c>
-      <c r="L41" s="2">
-        <f>Soymeal!L4</f>
+      <c r="L42" s="3">
+        <f>Soymeal!L5</f>
         <v>12</v>
       </c>
-      <c r="M41" s="2">
-        <f>Soymeal!M4</f>
+      <c r="M42" s="3">
+        <f>Soymeal!M5</f>
         <v>13</v>
       </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2">
-        <f>Soymeal!N4</f>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
+        <f>Soymeal!N5</f>
         <v>521066</v>
       </c>
-      <c r="S41" s="2">
-        <f>Soymeal!O4</f>
+      <c r="S42" s="3">
+        <f>Soymeal!O5</f>
         <v>-8312</v>
       </c>
-      <c r="T41" s="2"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="str">
-        <f>Soymeal!A5</f>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="str">
+        <f>Soymeal!A6</f>
         <v>02 Aug 2024</v>
       </c>
-      <c r="B42" s="2" t="str">
-        <f>Soymeal!B5</f>
+      <c r="B43" s="3" t="str">
+        <f>Soymeal!B6</f>
         <v>-831</v>
       </c>
-      <c r="C42" s="2" t="str">
-        <f>Soymeal!C5</f>
+      <c r="C43" s="3" t="str">
+        <f>Soymeal!C6</f>
         <v>+283</v>
       </c>
-      <c r="D42" s="2" t="str">
-        <f>Soymeal!D5</f>
+      <c r="D43" s="3" t="str">
+        <f>Soymeal!D6</f>
         <v>+889</v>
       </c>
-      <c r="E42" s="2" t="str">
-        <f>Soymeal!E5</f>
+      <c r="E43" s="3" t="str">
+        <f>Soymeal!E6</f>
         <v>+3,769</v>
       </c>
-      <c r="F42" s="2">
-        <f>Soymeal!F5</f>
+      <c r="F43" s="3">
+        <f>Soymeal!F6</f>
         <v>390</v>
       </c>
-      <c r="G42" s="2" t="str">
-        <f>Soymeal!G5</f>
+      <c r="G43" s="3" t="str">
+        <f>Soymeal!G6</f>
         <v>+2,470</v>
       </c>
-      <c r="H42" s="2">
-        <f>Soymeal!H5</f>
+      <c r="H43" s="3">
+        <f>Soymeal!H6</f>
         <v>913</v>
       </c>
-      <c r="I42" s="2" t="str">
-        <f>Soymeal!I5</f>
+      <c r="I43" s="3" t="str">
+        <f>Soymeal!I6</f>
         <v>+479</v>
       </c>
-      <c r="J42" s="2">
-        <f>Soymeal!J5</f>
+      <c r="J43" s="3">
+        <f>Soymeal!J6</f>
         <v>57</v>
       </c>
-      <c r="K42" s="2">
-        <f>Soymeal!K5</f>
+      <c r="K43" s="3">
+        <f>Soymeal!K6</f>
         <v>3</v>
       </c>
-      <c r="L42" s="2">
-        <f>Soymeal!L5</f>
+      <c r="L43" s="3">
+        <f>Soymeal!L6</f>
         <v>8</v>
       </c>
-      <c r="M42" s="2">
-        <f>Soymeal!M5</f>
+      <c r="M43" s="3">
+        <f>Soymeal!M6</f>
         <v>35</v>
       </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2">
-        <f>Soymeal!N5</f>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3">
+        <f>Soymeal!N6</f>
         <v>529378</v>
       </c>
-      <c r="S42" s="2">
-        <f>Soymeal!O5</f>
+      <c r="S43" s="3">
+        <f>Soymeal!O6</f>
         <v>8468</v>
       </c>
-      <c r="T42" s="2"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="str">
-        <f>Soymeal!A6</f>
-        <v>01 Aug 2024</v>
-      </c>
-      <c r="B43" s="2" t="str">
-        <f>Soymeal!B6</f>
-        <v>-1,163</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f>Soymeal!C6</f>
-        <v>+147</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f>Soymeal!D6</f>
-        <v>+82</v>
-      </c>
-      <c r="E43" s="2" t="str">
-        <f>Soymeal!E6</f>
-        <v>+5,641</v>
-      </c>
-      <c r="F43" s="2">
-        <f>Soymeal!F6</f>
-        <v>320</v>
-      </c>
-      <c r="G43" s="2" t="str">
-        <f>Soymeal!G6</f>
-        <v>+938</v>
-      </c>
-      <c r="H43" s="2">
-        <f>Soymeal!H6</f>
-        <v>393</v>
-      </c>
-      <c r="I43" s="2" t="str">
-        <f>Soymeal!I6</f>
-        <v>+557</v>
-      </c>
-      <c r="J43" s="2">
-        <f>Soymeal!J6</f>
-        <v>216</v>
-      </c>
-      <c r="K43" s="2">
-        <f>Soymeal!K6</f>
-        <v>24</v>
-      </c>
-      <c r="L43" s="2">
-        <f>Soymeal!L6</f>
-        <v>110</v>
-      </c>
-      <c r="M43" s="2">
-        <f>Soymeal!M6</f>
-        <v>85</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2">
-        <f>Soymeal!N6</f>
-        <v>520910</v>
-      </c>
-      <c r="S43" s="2">
-        <f>Soymeal!O6</f>
-        <v>7358</v>
-      </c>
-      <c r="T43" s="2"/>
+      <c r="T43" s="1"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="1"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="1"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="2"/>
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="1"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="str">
+      <c r="A47" s="3" t="str">
         <f>Soyoil!A1</f>
         <v>Date</v>
       </c>
-      <c r="B47" s="2" t="str">
+      <c r="B47" s="3" t="str">
         <f>Soyoil!B1</f>
         <v>AUG 2024</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" s="3" t="str">
         <f>Soyoil!C1</f>
         <v>SEP 2024</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D47" s="3" t="str">
         <f>Soyoil!D1</f>
         <v>OCT 2024</v>
       </c>
-      <c r="E47" s="2" t="str">
+      <c r="E47" s="3" t="str">
         <f>Soyoil!E1</f>
         <v>DEC 2024</v>
       </c>
-      <c r="F47" s="2" t="str">
+      <c r="F47" s="3" t="str">
         <f>Soyoil!F1</f>
         <v>JAN 2025</v>
       </c>
-      <c r="G47" s="2" t="str">
+      <c r="G47" s="3" t="str">
         <f>Soyoil!G1</f>
         <v>MAR 2025</v>
       </c>
-      <c r="H47" s="2" t="str">
+      <c r="H47" s="3" t="str">
         <f>Soyoil!H1</f>
         <v>MAY 2025</v>
       </c>
-      <c r="I47" s="2" t="str">
+      <c r="I47" s="3" t="str">
         <f>Soyoil!I1</f>
         <v>JUL 2025</v>
       </c>
-      <c r="J47" s="2" t="str">
+      <c r="J47" s="3" t="str">
         <f>Soyoil!J1</f>
         <v>AUG 2025</v>
       </c>
-      <c r="K47" s="2" t="str">
+      <c r="K47" s="3" t="str">
         <f>Soyoil!K1</f>
         <v>SEP 2025</v>
       </c>
-      <c r="L47" s="2" t="str">
+      <c r="L47" s="3" t="str">
         <f>Soyoil!L1</f>
         <v>OCT 2025</v>
       </c>
-      <c r="M47" s="2" t="str">
+      <c r="M47" s="3" t="str">
         <f>Soyoil!M1</f>
         <v>DEC 2025</v>
       </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2" t="str">
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3" t="str">
         <f>Soyoil!N1</f>
         <v>Market Open Interest</v>
       </c>
-      <c r="S47" s="2" t="str">
+      <c r="S47" s="3" t="str">
         <f>Soyoil!O1</f>
         <v>Change in OI</v>
       </c>
-      <c r="T47" s="2"/>
+      <c r="T47" s="1"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="str">
+      <c r="A48" s="3" t="str">
         <f>Soyoil!A2</f>
+        <v>08 Aug 2024</v>
+      </c>
+      <c r="B48" s="3">
+        <f>Soyoil!B2</f>
+        <v>-36</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f>Soyoil!C2</f>
+        <v>-721</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f>Soyoil!D2</f>
+        <v>-409</v>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f>Soyoil!E2</f>
+        <v>-232</v>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f>Soyoil!F2</f>
+        <v>258</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f>Soyoil!G2</f>
+        <v>-452</v>
+      </c>
+      <c r="H48" s="3">
+        <f>Soyoil!H2</f>
+        <v>765</v>
+      </c>
+      <c r="I48" s="3">
+        <f>Soyoil!I2</f>
+        <v>138</v>
+      </c>
+      <c r="J48" s="3">
+        <f>Soyoil!J2</f>
+        <v>56</v>
+      </c>
+      <c r="K48" s="3">
+        <f>Soyoil!K2</f>
+        <v>187</v>
+      </c>
+      <c r="L48" s="3">
+        <f>Soyoil!L2</f>
+        <v>78</v>
+      </c>
+      <c r="M48" s="3">
+        <f>Soyoil!M2</f>
+        <v>-81</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
+        <f>Soyoil!N2</f>
+        <v>550066</v>
+      </c>
+      <c r="S48" s="3">
+        <f>Soyoil!O2</f>
+        <v>-449</v>
+      </c>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="str">
+        <f>Soyoil!A3</f>
         <v>07 Aug 2024</v>
       </c>
-      <c r="B48" s="2">
-        <f>Soyoil!B2</f>
+      <c r="B49" s="3">
+        <f>Soyoil!B3</f>
         <v>-167</v>
       </c>
-      <c r="C48" s="2" t="str">
-        <f>Soyoil!C2</f>
+      <c r="C49" s="3" t="str">
+        <f>Soyoil!C3</f>
         <v>-2,526</v>
       </c>
-      <c r="D48" s="2" t="str">
-        <f>Soyoil!D2</f>
+      <c r="D49" s="3" t="str">
+        <f>Soyoil!D3</f>
         <v>+1,556</v>
       </c>
-      <c r="E48" s="2" t="str">
-        <f>Soyoil!E2</f>
+      <c r="E49" s="3" t="str">
+        <f>Soyoil!E3</f>
         <v>+2,382</v>
       </c>
-      <c r="F48" s="2" t="str">
-        <f>Soyoil!F2</f>
+      <c r="F49" s="3" t="str">
+        <f>Soyoil!F3</f>
         <v>-928</v>
       </c>
-      <c r="G48" s="2" t="str">
-        <f>Soyoil!G2</f>
+      <c r="G49" s="3" t="str">
+        <f>Soyoil!G3</f>
         <v>-1,212</v>
       </c>
-      <c r="H48" s="2">
-        <f>Soyoil!H2</f>
+      <c r="H49" s="3">
+        <f>Soyoil!H3</f>
         <v>282</v>
       </c>
-      <c r="I48" s="2">
-        <f>Soyoil!I2</f>
+      <c r="I49" s="3">
+        <f>Soyoil!I3</f>
         <v>373</v>
       </c>
-      <c r="J48" s="2">
-        <f>Soyoil!J2</f>
+      <c r="J49" s="3">
+        <f>Soyoil!J3</f>
         <v>-43</v>
       </c>
-      <c r="K48" s="2">
-        <f>Soyoil!K2</f>
+      <c r="K49" s="3">
+        <f>Soyoil!K3</f>
         <v>-2</v>
       </c>
-      <c r="L48" s="2">
-        <f>Soyoil!L2</f>
+      <c r="L49" s="3">
+        <f>Soyoil!L3</f>
         <v>7</v>
       </c>
-      <c r="M48" s="2">
-        <f>Soyoil!M2</f>
+      <c r="M49" s="3">
+        <f>Soyoil!M3</f>
         <v>6</v>
       </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2">
-        <f>Soyoil!N2</f>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3">
+        <f>Soyoil!N3</f>
         <v>550515</v>
       </c>
-      <c r="S48" s="2">
-        <f>Soyoil!O2</f>
+      <c r="S49" s="3">
+        <f>Soyoil!O3</f>
         <v>-272</v>
       </c>
-      <c r="T48" s="2"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="str">
-        <f>Soyoil!A3</f>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="str">
+        <f>Soyoil!A4</f>
         <v>06 Aug 2024</v>
       </c>
-      <c r="B49" s="2">
-        <f>Soyoil!B3</f>
+      <c r="B50" s="3">
+        <f>Soyoil!B4</f>
         <v>-105</v>
       </c>
-      <c r="C49" s="2" t="str">
-        <f>Soyoil!C3</f>
+      <c r="C50" s="3" t="str">
+        <f>Soyoil!C4</f>
         <v>-471</v>
       </c>
-      <c r="D49" s="2" t="str">
-        <f>Soyoil!D3</f>
+      <c r="D50" s="3" t="str">
+        <f>Soyoil!D4</f>
         <v>-1,091</v>
       </c>
-      <c r="E49" s="2" t="str">
-        <f>Soyoil!E3</f>
+      <c r="E50" s="3" t="str">
+        <f>Soyoil!E4</f>
         <v>-760</v>
       </c>
-      <c r="F49" s="2" t="str">
-        <f>Soyoil!F3</f>
+      <c r="F50" s="3" t="str">
+        <f>Soyoil!F4</f>
         <v>-638</v>
       </c>
-      <c r="G49" s="2" t="str">
-        <f>Soyoil!G3</f>
+      <c r="G50" s="3" t="str">
+        <f>Soyoil!G4</f>
         <v>+618</v>
       </c>
-      <c r="H49" s="2">
-        <f>Soyoil!H3</f>
+      <c r="H50" s="3">
+        <f>Soyoil!H4</f>
         <v>907</v>
       </c>
-      <c r="I49" s="2">
-        <f>Soyoil!I3</f>
+      <c r="I50" s="3">
+        <f>Soyoil!I4</f>
         <v>594</v>
       </c>
-      <c r="J49" s="2">
-        <f>Soyoil!J3</f>
+      <c r="J50" s="3">
+        <f>Soyoil!J4</f>
         <v>95</v>
       </c>
-      <c r="K49" s="2">
-        <f>Soyoil!K3</f>
+      <c r="K50" s="3">
+        <f>Soyoil!K4</f>
         <v>116</v>
       </c>
-      <c r="L49" s="2">
-        <f>Soyoil!L3</f>
+      <c r="L50" s="3">
+        <f>Soyoil!L4</f>
         <v>112</v>
       </c>
-      <c r="M49" s="2">
-        <f>Soyoil!M3</f>
+      <c r="M50" s="3">
+        <f>Soyoil!M4</f>
         <v>61</v>
       </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2">
-        <f>Soyoil!N3</f>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
+        <f>Soyoil!N4</f>
         <v>550787</v>
       </c>
-      <c r="S49" s="2">
-        <f>Soyoil!O3</f>
+      <c r="S50" s="3">
+        <f>Soyoil!O4</f>
         <v>-564</v>
       </c>
-      <c r="T49" s="2"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="str">
-        <f>Soyoil!A4</f>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="str">
+        <f>Soyoil!A5</f>
         <v>05 Aug 2024</v>
       </c>
-      <c r="B50" s="2">
-        <f>Soyoil!B4</f>
+      <c r="B51" s="3">
+        <f>Soyoil!B5</f>
         <v>-12</v>
       </c>
-      <c r="C50" s="2" t="str">
-        <f>Soyoil!C4</f>
+      <c r="C51" s="3" t="str">
+        <f>Soyoil!C5</f>
         <v>-5,060</v>
       </c>
-      <c r="D50" s="2" t="str">
-        <f>Soyoil!D4</f>
+      <c r="D51" s="3" t="str">
+        <f>Soyoil!D5</f>
         <v>+75</v>
       </c>
-      <c r="E50" s="2" t="str">
-        <f>Soyoil!E4</f>
+      <c r="E51" s="3" t="str">
+        <f>Soyoil!E5</f>
         <v>-2,847</v>
       </c>
-      <c r="F50" s="2" t="str">
-        <f>Soyoil!F4</f>
+      <c r="F51" s="3" t="str">
+        <f>Soyoil!F5</f>
         <v>-1,788</v>
       </c>
-      <c r="G50" s="2" t="str">
-        <f>Soyoil!G4</f>
+      <c r="G51" s="3" t="str">
+        <f>Soyoil!G5</f>
         <v>-161</v>
       </c>
-      <c r="H50" s="2">
-        <f>Soyoil!H4</f>
+      <c r="H51" s="3">
+        <f>Soyoil!H5</f>
         <v>556</v>
       </c>
-      <c r="I50" s="2">
-        <f>Soyoil!I4</f>
+      <c r="I51" s="3">
+        <f>Soyoil!I5</f>
         <v>389</v>
       </c>
-      <c r="J50" s="2">
-        <f>Soyoil!J4</f>
+      <c r="J51" s="3">
+        <f>Soyoil!J5</f>
         <v>92</v>
       </c>
-      <c r="K50" s="2">
-        <f>Soyoil!K4</f>
+      <c r="K51" s="3">
+        <f>Soyoil!K5</f>
         <v>99</v>
       </c>
-      <c r="L50" s="2">
-        <f>Soyoil!L4</f>
+      <c r="L51" s="3">
+        <f>Soyoil!L5</f>
         <v>78</v>
       </c>
-      <c r="M50" s="2">
-        <f>Soyoil!M4</f>
+      <c r="M51" s="3">
+        <f>Soyoil!M5</f>
         <v>-190</v>
       </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2">
-        <f>Soyoil!N4</f>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3">
+        <f>Soyoil!N5</f>
         <v>551351</v>
       </c>
-      <c r="S50" s="2">
-        <f>Soyoil!O4</f>
+      <c r="S51" s="3">
+        <f>Soyoil!O5</f>
         <v>-8769</v>
       </c>
-      <c r="T50" s="2"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="str">
-        <f>Soyoil!A5</f>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="str">
+        <f>Soyoil!A6</f>
         <v>02 Aug 2024</v>
       </c>
-      <c r="B51" s="2">
-        <f>Soyoil!B5</f>
+      <c r="B52" s="3">
+        <f>Soyoil!B6</f>
         <v>34</v>
       </c>
-      <c r="C51" s="2" t="str">
-        <f>Soyoil!C5</f>
+      <c r="C52" s="3" t="str">
+        <f>Soyoil!C6</f>
         <v>+2,524</v>
       </c>
-      <c r="D51" s="2" t="str">
-        <f>Soyoil!D5</f>
+      <c r="D52" s="3" t="str">
+        <f>Soyoil!D6</f>
         <v>+1,012</v>
       </c>
-      <c r="E51" s="2" t="str">
-        <f>Soyoil!E5</f>
+      <c r="E52" s="3" t="str">
+        <f>Soyoil!E6</f>
         <v>+1,526</v>
       </c>
-      <c r="F51" s="2" t="str">
-        <f>Soyoil!F5</f>
+      <c r="F52" s="3" t="str">
+        <f>Soyoil!F6</f>
         <v>+642</v>
       </c>
-      <c r="G51" s="2" t="str">
-        <f>Soyoil!G5</f>
+      <c r="G52" s="3" t="str">
+        <f>Soyoil!G6</f>
         <v>+1,355</v>
       </c>
-      <c r="H51" s="2">
-        <f>Soyoil!H5</f>
+      <c r="H52" s="3">
+        <f>Soyoil!H6</f>
         <v>931</v>
       </c>
-      <c r="I51" s="2">
-        <f>Soyoil!I5</f>
+      <c r="I52" s="3">
+        <f>Soyoil!I6</f>
         <v>295</v>
       </c>
-      <c r="J51" s="2">
-        <f>Soyoil!J5</f>
+      <c r="J52" s="3">
+        <f>Soyoil!J6</f>
         <v>41</v>
       </c>
-      <c r="K51" s="2">
-        <f>Soyoil!K5</f>
+      <c r="K52" s="3">
+        <f>Soyoil!K6</f>
         <v>173</v>
       </c>
-      <c r="L51" s="2">
-        <f>Soyoil!L5</f>
+      <c r="L52" s="3">
+        <f>Soyoil!L6</f>
         <v>79</v>
       </c>
-      <c r="M51" s="2">
-        <f>Soyoil!M5</f>
+      <c r="M52" s="3">
+        <f>Soyoil!M6</f>
         <v>94</v>
       </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2">
-        <f>Soyoil!N5</f>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
+        <f>Soyoil!N6</f>
         <v>560120</v>
       </c>
-      <c r="S51" s="2">
-        <f>Soyoil!O5</f>
+      <c r="S52" s="3">
+        <f>Soyoil!O6</f>
         <v>8705</v>
       </c>
-      <c r="T51" s="2"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="str">
-        <f>Soyoil!A6</f>
-        <v>01 Aug 2024</v>
-      </c>
-      <c r="B52" s="2">
-        <f>Soyoil!B6</f>
-        <v>-232</v>
-      </c>
-      <c r="C52" s="2" t="str">
-        <f>Soyoil!C6</f>
-        <v>-5,305</v>
-      </c>
-      <c r="D52" s="2" t="str">
-        <f>Soyoil!D6</f>
-        <v>-643</v>
-      </c>
-      <c r="E52" s="2" t="str">
-        <f>Soyoil!E6</f>
-        <v>-2,911</v>
-      </c>
-      <c r="F52" s="2" t="str">
-        <f>Soyoil!F6</f>
-        <v>+103</v>
-      </c>
-      <c r="G52" s="2" t="str">
-        <f>Soyoil!G6</f>
-        <v>+493</v>
-      </c>
-      <c r="H52" s="2">
-        <f>Soyoil!H6</f>
-        <v>619</v>
-      </c>
-      <c r="I52" s="2">
-        <f>Soyoil!I6</f>
-        <v>103</v>
-      </c>
-      <c r="J52" s="2">
-        <f>Soyoil!J6</f>
-        <v>72</v>
-      </c>
-      <c r="K52" s="2">
-        <f>Soyoil!K6</f>
-        <v>31</v>
-      </c>
-      <c r="L52" s="2">
-        <f>Soyoil!L6</f>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M52" s="2">
-        <f>Soyoil!M6</f>
-        <v>39</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2">
-        <f>Soyoil!N6</f>
-        <v>551415</v>
-      </c>
-      <c r="S52" s="2">
-        <f>Soyoil!O6</f>
-        <v>-7624</v>
-      </c>
-      <c r="T52" s="2"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
+      <c r="S56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S57" s="3" t="e">
+        <f>SUM(B57:M57)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S58" s="3" t="e">
+        <f>SUM(B58:M58)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S59" s="3" t="e">
+        <f>SUM(B59:M59)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S60" s="3" t="e">
+        <f>SUM(B60:M60)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="B61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S61" s="3" t="e">
+        <f>SUM(B61:M61)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="str">
+        <f>yECO!A1</f>
+        <v>Date</v>
+      </c>
+      <c r="B65" s="3" t="str">
+        <f>yECO!B1</f>
+        <v>Nov 2024</v>
+      </c>
+      <c r="C65" s="3" t="str">
+        <f>yECO!C1</f>
+        <v>Feb 2025</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f>yECO!D1</f>
+        <v>May 2025</v>
+      </c>
+      <c r="E65" s="3" t="str">
+        <f>yECO!E1</f>
+        <v>Aug 2025</v>
+      </c>
+      <c r="F65" s="3" t="str">
+        <f>yECO!F1</f>
+        <v>Nov 2025</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f>yECO!G1</f>
+        <v>Feb 2026</v>
+      </c>
+      <c r="H65" s="3" t="str">
+        <f>yECO!H1</f>
+        <v>May 2026</v>
+      </c>
+      <c r="I65" s="3" t="str">
+        <f>yECO!I1</f>
+        <v>Aug 2026</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f>yECO!J1</f>
+        <v>Nov 2026</v>
+      </c>
+      <c r="K65" s="3" t="str">
+        <f>yECO!K1</f>
+        <v>Feb 2027</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="str">
+        <f>yECO!A2</f>
+        <v>9 Aug 2024</v>
+      </c>
+      <c r="B66" s="3">
+        <f>yECO!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <f>yECO!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <f>yECO!D2</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <f>yECO!E2</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <f>yECO!F2</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <f>yECO!G2</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <f>yECO!H2</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <f>yECO!I2</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <f>yECO!J2</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <f>yECO!K2</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
+        <f>yECO!L2</f>
+        <v>108121</v>
+      </c>
+      <c r="S66" s="3">
+        <f>SUM(B66:K66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="str">
+        <f>yECO!A3</f>
+        <v>8 Aug 2024</v>
+      </c>
+      <c r="B67" s="3">
+        <f>yECO!B3</f>
+        <v>-345</v>
+      </c>
+      <c r="C67" s="3">
+        <f>yECO!C3</f>
+        <v>740</v>
+      </c>
+      <c r="D67" s="3">
+        <f>yECO!D3</f>
+        <v>16</v>
+      </c>
+      <c r="E67" s="3">
+        <f>yECO!E3</f>
+        <v>61</v>
+      </c>
+      <c r="F67" s="3">
+        <f>yECO!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <f>yECO!G3</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <f>yECO!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <f>yECO!I3</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <f>yECO!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <f>yECO!K3</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3">
+        <f>yECO!L3</f>
+        <v>108121</v>
+      </c>
+      <c r="S67" s="3">
+        <f>SUM(B67:K67)</f>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="str">
+        <f>yECO!A4</f>
+        <v>7 Aug 2024</v>
+      </c>
+      <c r="B68" s="3">
+        <f>yECO!B4</f>
+        <v>881</v>
+      </c>
+      <c r="C68" s="3">
+        <f>yECO!C4</f>
+        <v>1028</v>
+      </c>
+      <c r="D68" s="3">
+        <f>yECO!D4</f>
+        <v>267</v>
+      </c>
+      <c r="E68" s="3">
+        <f>yECO!E4</f>
+        <v>-200</v>
+      </c>
+      <c r="F68" s="3">
+        <f>yECO!F4</f>
+        <v>5</v>
+      </c>
+      <c r="G68" s="3">
+        <f>yECO!G4</f>
+        <v>3</v>
+      </c>
+      <c r="H68" s="3">
+        <f>yECO!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <f>yECO!I4</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <f>yECO!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <f>yECO!K4</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
+        <f>yECO!L4</f>
+        <v>107649</v>
+      </c>
+      <c r="S68" s="3">
+        <f>SUM(B68:K68)</f>
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="str">
+        <f>yECO!A5</f>
+        <v>6 Aug 2024</v>
+      </c>
+      <c r="B69" s="3">
+        <f>yECO!B5</f>
+        <v>-645</v>
+      </c>
+      <c r="C69" s="3">
+        <f>yECO!C5</f>
+        <v>516</v>
+      </c>
+      <c r="D69" s="3">
+        <f>yECO!D5</f>
+        <v>-176</v>
+      </c>
+      <c r="E69" s="3">
+        <f>yECO!E5</f>
+        <v>238</v>
+      </c>
+      <c r="F69" s="3">
+        <f>yECO!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <f>yECO!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <f>yECO!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <f>yECO!I5</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <f>yECO!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <f>yECO!K5</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3">
+        <f>yECO!L5</f>
+        <v>105665</v>
+      </c>
+      <c r="S69" s="3">
+        <f>SUM(B69:K69)</f>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f>yECO!A6</f>
+        <v>0</v>
+      </c>
+      <c r="B70" s="3">
+        <f>yECO!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="3">
+        <f>yECO!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <f>yECO!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <f>yECO!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <f>yECO!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <f>yECO!G6</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <f>yECO!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <f>yECO!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <f>yECO!J6</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <f>yECO!K6</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
+        <f>yECO!L6</f>
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <f>SUM(B70:K70)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A55:S55"/>
+    <mergeCell ref="A64:S64"/>
+    <mergeCell ref="A10:S10"/>
+    <mergeCell ref="A19:S19"/>
+    <mergeCell ref="A28:S28"/>
     <mergeCell ref="A46:S46"/>
     <mergeCell ref="A37:S37"/>
-    <mergeCell ref="A28:S28"/>
-    <mergeCell ref="A19:S19"/>
-    <mergeCell ref="A10:S10"/>
     <mergeCell ref="A1:S1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B3:K7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:O6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="M2">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N2">
-        <v>1568196</v>
+        <v>1560632</v>
       </c>
       <c r="O2">
-        <v>-10108</v>
+        <v>-7564</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>81</v>
+        <v>-18</v>
       </c>
       <c r="J3">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N3">
-        <v>1578304</v>
+        <v>1568196</v>
       </c>
       <c r="O3">
-        <v>-5104</v>
+        <v>-10108</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="N4">
-        <v>1583408</v>
+        <v>1578304</v>
       </c>
       <c r="O4">
-        <v>-20442</v>
+        <v>-5104</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N5">
-        <v>1603850</v>
+        <v>1583408</v>
       </c>
       <c r="O5">
-        <v>9986</v>
+        <v>-20442</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I6">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>21</v>
@@ -3987,12 +5134,59 @@
         <v>0</v>
       </c>
       <c r="M6">
+        <v>68</v>
+      </c>
+      <c r="N6">
+        <v>1603850</v>
+      </c>
+      <c r="O6">
+        <v>9986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>18</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>1593864</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>-1526</v>
       </c>
     </row>
@@ -4003,79 +5197,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="F2">
-        <v>461</v>
+        <v>339</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4087,36 +5279,36 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>262840</v>
+        <v>257659</v>
       </c>
       <c r="M2">
-        <v>-2166</v>
+        <v>-5181</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>225</v>
+        <v>361</v>
       </c>
       <c r="F3">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4128,36 +5320,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>265006</v>
+        <v>262840</v>
       </c>
       <c r="M3">
-        <v>3311</v>
+        <v>-2166</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E4">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="F4">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="G4">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4169,36 +5361,36 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>261695</v>
+        <v>265006</v>
       </c>
       <c r="M4">
-        <v>2728</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E5">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="F5">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4210,33 +5402,33 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>258967</v>
+        <v>261695</v>
       </c>
       <c r="M5">
-        <v>1797</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E6">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="G6">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -4251,9 +5443,50 @@
         <v>0</v>
       </c>
       <c r="L6">
+        <v>258967</v>
+      </c>
+      <c r="M6">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>320</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>257170</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>3952</v>
       </c>
     </row>
@@ -4264,293 +5497,338 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:O6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>-61</v>
+        <v>-92</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>-3</v>
+        <v>61</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>789528</v>
+        <v>792635</v>
       </c>
       <c r="O2">
-        <v>2696</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>-550</v>
+        <v>-61</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="I3">
-        <v>-6</v>
+        <v>65</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>-3</v>
       </c>
       <c r="K3">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>-1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
-        <v>786832</v>
+        <v>789528</v>
       </c>
       <c r="O3">
-        <v>-1034</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>-48</v>
+        <v>-550</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="J4">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>-107</v>
+        <v>96</v>
       </c>
       <c r="L4">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>787866</v>
+        <v>786832</v>
       </c>
       <c r="O4">
-        <v>-8567</v>
+        <v>-1034</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>-296</v>
+        <v>-48</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="I5">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>-6</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>164</v>
+        <v>-107</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>796433</v>
+        <v>787866</v>
       </c>
       <c r="O5">
-        <v>-869</v>
+        <v>-8567</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6">
+        <v>-296</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>-6</v>
+      </c>
+      <c r="K6">
+        <v>164</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>796433</v>
+      </c>
+      <c r="O6">
+        <v>-869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
         <v>-667</v>
       </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6">
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7">
         <v>7</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-143</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-3</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>797302</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>5793</v>
       </c>
     </row>
@@ -4561,293 +5839,338 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:O6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
+      <c r="O1" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="F2">
-        <v>-21</v>
+        <v>-256</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="H2">
-        <v>267</v>
+        <v>467</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="J2">
         <v>98</v>
       </c>
       <c r="K2">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="L2">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="N2">
-        <v>514250</v>
+        <v>512507</v>
       </c>
       <c r="O2">
-        <v>-3379</v>
+        <v>-1743</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F3">
-        <v>404</v>
+        <v>-21</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="H3">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="J3">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="L3">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="M3">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="N3">
-        <v>517629</v>
+        <v>514250</v>
       </c>
       <c r="O3">
-        <v>-3437</v>
+        <v>-3379</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="F4">
-        <v>-825</v>
+        <v>404</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="H4">
-        <v>550</v>
+        <v>243</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="J4">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N4">
-        <v>521066</v>
+        <v>517629</v>
       </c>
       <c r="O4">
-        <v>-8312</v>
+        <v>-3437</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="F5">
-        <v>390</v>
+        <v>-825</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="H5">
-        <v>913</v>
+        <v>550</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="J5">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N5">
-        <v>529378</v>
+        <v>521066</v>
       </c>
       <c r="O5">
-        <v>8468</v>
+        <v>-8312</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="F6">
+        <v>390</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6">
+        <v>913</v>
+      </c>
+      <c r="I6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>35</v>
+      </c>
+      <c r="N6">
+        <v>529378</v>
+      </c>
+      <c r="O6">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7">
         <v>320</v>
       </c>
-      <c r="G6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6">
+      <c r="G7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7">
         <v>393</v>
       </c>
-      <c r="I6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J6">
+      <c r="I7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7">
         <v>216</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>24</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>110</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>85</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>520910</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>7358</v>
       </c>
     </row>
@@ -4858,293 +6181,338 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="A1:O6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
+      <c r="O1" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>-167</v>
+        <v>-36</v>
       </c>
       <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2">
+        <v>765</v>
+      </c>
+      <c r="I2">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2">
-        <v>282</v>
-      </c>
-      <c r="I2">
-        <v>373</v>
-      </c>
       <c r="J2">
-        <v>-43</v>
+        <v>56</v>
       </c>
       <c r="K2">
-        <v>-2</v>
+        <v>187</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>-81</v>
       </c>
       <c r="N2">
-        <v>550515</v>
+        <v>550066</v>
       </c>
       <c r="O2">
-        <v>-272</v>
+        <v>-449</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>-105</v>
+        <v>-167</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="H3">
-        <v>907</v>
+        <v>282</v>
       </c>
       <c r="I3">
-        <v>594</v>
+        <v>373</v>
       </c>
       <c r="J3">
-        <v>95</v>
+        <v>-43</v>
       </c>
       <c r="K3">
-        <v>116</v>
+        <v>-2</v>
       </c>
       <c r="L3">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>550787</v>
+        <v>550515</v>
       </c>
       <c r="O3">
-        <v>-564</v>
+        <v>-272</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>-12</v>
+        <v>-105</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="H4">
-        <v>556</v>
+        <v>907</v>
       </c>
       <c r="I4">
-        <v>389</v>
+        <v>594</v>
       </c>
       <c r="J4">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K4">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>-190</v>
+        <v>61</v>
       </c>
       <c r="N4">
-        <v>551351</v>
+        <v>550787</v>
       </c>
       <c r="O4">
-        <v>-8769</v>
+        <v>-564</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>-12</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="H5">
-        <v>931</v>
+        <v>556</v>
       </c>
       <c r="I5">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="J5">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>94</v>
+        <v>-190</v>
       </c>
       <c r="N5">
-        <v>560120</v>
+        <v>551351</v>
       </c>
       <c r="O5">
-        <v>8705</v>
+        <v>-8769</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6">
+        <v>931</v>
+      </c>
+      <c r="I6">
+        <v>295</v>
+      </c>
+      <c r="J6">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <v>173</v>
+      </c>
+      <c r="L6">
+        <v>79</v>
+      </c>
+      <c r="M6">
+        <v>94</v>
+      </c>
+      <c r="N6">
+        <v>560120</v>
+      </c>
+      <c r="O6">
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
         <v>-232</v>
       </c>
-      <c r="C6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6">
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7">
         <v>619</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>103</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>72</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>31</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>39</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>551415</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>-7624</v>
       </c>
     </row>
@@ -5155,82 +6523,82 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="A1:M6"/>
+      <selection activeCell="B2" sqref="B2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2">
-        <v>998</v>
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>243</v>
       </c>
       <c r="G2">
-        <v>-9</v>
+        <v>46</v>
       </c>
       <c r="H2">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -5239,39 +6607,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>423149</v>
+        <v>415084</v>
       </c>
       <c r="M2">
-        <v>-8398</v>
+        <v>-8065</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3">
-        <v>-57</v>
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
       </c>
       <c r="F3">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>-9</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -5280,39 +6648,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>431547</v>
+        <v>423149</v>
       </c>
       <c r="M3">
-        <v>-4019</v>
+        <v>-8398</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4">
-        <v>161</v>
+        <v>209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>210</v>
       </c>
       <c r="F4">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G4">
-        <v>-45</v>
+        <v>18</v>
       </c>
       <c r="H4">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -5321,39 +6689,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>435566</v>
+        <v>431547</v>
       </c>
       <c r="M4">
-        <v>-3410</v>
+        <v>-4019</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5">
-        <v>-7</v>
+        <v>213</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
       </c>
       <c r="F5">
-        <v>19</v>
+        <v>458</v>
       </c>
       <c r="G5">
-        <v>-31</v>
+        <v>-45</v>
       </c>
       <c r="H5">
-        <v>-52</v>
+        <v>-2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -5362,51 +6730,576 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>438976</v>
+        <v>435566</v>
       </c>
       <c r="M5">
-        <v>-996</v>
+        <v>-3410</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6">
-        <v>398</v>
+        <v>217</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
       </c>
       <c r="F6">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>-31</v>
+      </c>
+      <c r="H6">
+        <v>-52</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>438976</v>
+      </c>
+      <c r="M6">
+        <v>-996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7">
         <v>-9</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>39</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>439972</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>5173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N3">
+        <v>-4727</v>
+      </c>
+      <c r="O3">
+        <v>-11321</v>
+      </c>
+      <c r="P3">
+        <v>5059</v>
+      </c>
+      <c r="Q3">
+        <v>889</v>
+      </c>
+      <c r="R3">
+        <v>-74</v>
+      </c>
+      <c r="S3">
+        <v>399</v>
+      </c>
+      <c r="T3">
+        <v>321</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4">
+        <v>1590</v>
+      </c>
+      <c r="O4">
+        <v>-5188</v>
+      </c>
+      <c r="P4">
+        <v>5729</v>
+      </c>
+      <c r="Q4">
+        <v>-577</v>
+      </c>
+      <c r="R4">
+        <v>620</v>
+      </c>
+      <c r="S4">
+        <v>725</v>
+      </c>
+      <c r="T4">
+        <v>281</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5">
+        <v>5339</v>
+      </c>
+      <c r="O5">
+        <v>-1523</v>
+      </c>
+      <c r="P5">
+        <v>6317</v>
+      </c>
+      <c r="Q5">
+        <v>-128</v>
+      </c>
+      <c r="R5">
+        <v>34</v>
+      </c>
+      <c r="S5">
+        <v>318</v>
+      </c>
+      <c r="T5">
+        <v>321</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="N6">
+        <v>5212</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>731</v>
+      </c>
+      <c r="T6">
+        <v>945</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>108121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3">
+        <v>-345</v>
+      </c>
+      <c r="C3">
+        <v>740</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>108121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4">
+        <v>881</v>
+      </c>
+      <c r="C4">
+        <v>1028</v>
+      </c>
+      <c r="D4">
+        <v>267</v>
+      </c>
+      <c r="E4">
+        <v>-200</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>107649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5">
+        <v>-645</v>
+      </c>
+      <c r="C5">
+        <v>516</v>
+      </c>
+      <c r="D5">
+        <v>-176</v>
+      </c>
+      <c r="E5">
+        <v>238</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>105665</v>
       </c>
     </row>
   </sheetData>

--- a/OI/OI Data.xlsx
+++ b/OI/OI Data.xlsx
@@ -4011,7 +4011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4099,280 +4099,280 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08 Aug 2024</t>
+          <t>09 Aug 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-18962</v>
+        <v>-21155</v>
       </c>
       <c r="C2" t="n">
-        <v>4137</v>
+        <v>7643</v>
       </c>
       <c r="D2" t="n">
-        <v>4408</v>
+        <v>6151</v>
       </c>
       <c r="E2" t="n">
-        <v>1184</v>
+        <v>814</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="G2" t="n">
-        <v>1900</v>
+        <v>401</v>
       </c>
       <c r="H2" t="n">
-        <v>594</v>
+        <v>-249</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>-14</v>
       </c>
       <c r="L2" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="N2" t="n">
-        <v>1561543</v>
+        <v>1555519</v>
       </c>
       <c r="O2" t="n">
-        <v>-6653</v>
+        <v>-6024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07 Aug 2024</t>
+          <t>08 Aug 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-28970</v>
+        <v>-18962</v>
       </c>
       <c r="C3" t="n">
-        <v>8561</v>
+        <v>4137</v>
       </c>
       <c r="D3" t="n">
-        <v>6719</v>
+        <v>4408</v>
       </c>
       <c r="E3" t="n">
-        <v>533</v>
+        <v>1184</v>
       </c>
       <c r="F3" t="n">
-        <v>406</v>
+        <v>52</v>
       </c>
       <c r="G3" t="n">
-        <v>1692</v>
+        <v>1900</v>
       </c>
       <c r="H3" t="n">
-        <v>899</v>
+        <v>594</v>
       </c>
       <c r="I3" t="n">
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>1568196</v>
+        <v>1561543</v>
       </c>
       <c r="O3" t="n">
-        <v>-10108</v>
+        <v>-6653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06 Aug 2024</t>
+          <t>07 Aug 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-7441</v>
+        <v>-28970</v>
       </c>
       <c r="C4" t="n">
-        <v>-1495</v>
+        <v>8561</v>
       </c>
       <c r="D4" t="n">
-        <v>1006</v>
+        <v>6719</v>
       </c>
       <c r="E4" t="n">
-        <v>279</v>
+        <v>533</v>
       </c>
       <c r="F4" t="n">
-        <v>836</v>
+        <v>406</v>
       </c>
       <c r="G4" t="n">
-        <v>518</v>
+        <v>1692</v>
       </c>
       <c r="H4" t="n">
-        <v>1092</v>
+        <v>899</v>
       </c>
       <c r="I4" t="n">
-        <v>81</v>
+        <v>-18</v>
       </c>
       <c r="J4" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>1578304</v>
+        <v>1568196</v>
       </c>
       <c r="O4" t="n">
-        <v>-5104</v>
+        <v>-10108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05 Aug 2024</t>
+          <t>06 Aug 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-17766</v>
+        <v>-7441</v>
       </c>
       <c r="C5" t="n">
-        <v>-5775</v>
+        <v>-1495</v>
       </c>
       <c r="D5" t="n">
-        <v>-257</v>
+        <v>1006</v>
       </c>
       <c r="E5" t="n">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="F5" t="n">
-        <v>511</v>
+        <v>836</v>
       </c>
       <c r="G5" t="n">
-        <v>953</v>
+        <v>518</v>
       </c>
       <c r="H5" t="n">
-        <v>1538</v>
+        <v>1092</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K5" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>1583408</v>
+        <v>1578304</v>
       </c>
       <c r="O5" t="n">
-        <v>-20442</v>
+        <v>-5104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02 Aug 2024</t>
+          <t>05 Aug 2024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3572</v>
+        <v>-17766</v>
       </c>
       <c r="C6" t="n">
-        <v>1925</v>
+        <v>-5775</v>
       </c>
       <c r="D6" t="n">
-        <v>5872</v>
+        <v>-257</v>
       </c>
       <c r="E6" t="n">
-        <v>714</v>
+        <v>239</v>
       </c>
       <c r="F6" t="n">
-        <v>1317</v>
+        <v>511</v>
       </c>
       <c r="G6" t="n">
-        <v>2238</v>
+        <v>953</v>
       </c>
       <c r="H6" t="n">
-        <v>1362</v>
+        <v>1538</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N6" t="n">
-        <v>1603850</v>
+        <v>1583408</v>
       </c>
       <c r="O6" t="n">
-        <v>9986</v>
+        <v>-20442</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01 Aug 2024</t>
+          <t>02 Aug 2024</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6835</v>
+        <v>-3572</v>
       </c>
       <c r="C7" t="n">
-        <v>-1211</v>
+        <v>1925</v>
       </c>
       <c r="D7" t="n">
-        <v>1264</v>
+        <v>5872</v>
       </c>
       <c r="E7" t="n">
-        <v>1291</v>
+        <v>714</v>
       </c>
       <c r="F7" t="n">
-        <v>1900</v>
+        <v>1317</v>
       </c>
       <c r="G7" t="n">
-        <v>1035</v>
+        <v>2238</v>
       </c>
       <c r="H7" t="n">
-        <v>937</v>
+        <v>1362</v>
       </c>
       <c r="I7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>21</v>
@@ -4381,12 +4381,61 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>68</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1603850</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01 Aug 2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-6835</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1211</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1264</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1291</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1900</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H8" t="n">
+        <v>937</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>18</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>1593864</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>-1526</v>
       </c>
     </row>
@@ -4401,7 +4450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4479,29 +4528,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08 Aug 2024</t>
+          <t>09 Aug 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9756</v>
+        <v>-10589</v>
       </c>
       <c r="C2" t="n">
-        <v>1141</v>
+        <v>4911</v>
       </c>
       <c r="D2" t="n">
-        <v>2540</v>
+        <v>1966</v>
       </c>
       <c r="E2" t="n">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="F2" t="n">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4513,38 +4562,38 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>257527</v>
+        <v>254046</v>
       </c>
       <c r="M2" t="n">
-        <v>-5313</v>
+        <v>-3481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07 Aug 2024</t>
+          <t>08 Aug 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11508</v>
+        <v>-9756</v>
       </c>
       <c r="C3" t="n">
-        <v>7211</v>
+        <v>1141</v>
       </c>
       <c r="D3" t="n">
-        <v>1282</v>
+        <v>2540</v>
       </c>
       <c r="E3" t="n">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="F3" t="n">
-        <v>461</v>
+        <v>339</v>
       </c>
       <c r="G3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4556,38 +4605,38 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>262840</v>
+        <v>257527</v>
       </c>
       <c r="M3" t="n">
-        <v>-2166</v>
+        <v>-5313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06 Aug 2024</t>
+          <t>07 Aug 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2171</v>
+        <v>-11508</v>
       </c>
       <c r="C4" t="n">
-        <v>4212</v>
+        <v>7211</v>
       </c>
       <c r="D4" t="n">
-        <v>546</v>
+        <v>1282</v>
       </c>
       <c r="E4" t="n">
-        <v>225</v>
+        <v>361</v>
       </c>
       <c r="F4" t="n">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4599,38 +4648,38 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>265006</v>
+        <v>262840</v>
       </c>
       <c r="M4" t="n">
-        <v>3311</v>
+        <v>-2166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05 Aug 2024</t>
+          <t>06 Aug 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-838</v>
+        <v>-2171</v>
       </c>
       <c r="C5" t="n">
-        <v>2192</v>
+        <v>4212</v>
       </c>
       <c r="D5" t="n">
-        <v>913</v>
+        <v>546</v>
       </c>
       <c r="E5" t="n">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="F5" t="n">
-        <v>83</v>
+        <v>495</v>
       </c>
       <c r="G5" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4642,38 +4691,38 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>261695</v>
+        <v>265006</v>
       </c>
       <c r="M5" t="n">
-        <v>2728</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02 Aug 2024</t>
+          <t>05 Aug 2024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1403</v>
+        <v>-838</v>
       </c>
       <c r="C6" t="n">
-        <v>-1070</v>
+        <v>2192</v>
       </c>
       <c r="D6" t="n">
-        <v>1064</v>
+        <v>913</v>
       </c>
       <c r="E6" t="n">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="F6" t="n">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="H6" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -4685,35 +4734,35 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>258967</v>
+        <v>261695</v>
       </c>
       <c r="M6" t="n">
-        <v>1797</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01 Aug 2024</t>
+          <t>02 Aug 2024</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>917</v>
+        <v>1403</v>
       </c>
       <c r="C7" t="n">
-        <v>1599</v>
+        <v>-1070</v>
       </c>
       <c r="D7" t="n">
-        <v>1108</v>
+        <v>1064</v>
       </c>
       <c r="E7" t="n">
-        <v>320</v>
+        <v>213</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="G7" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>-1</v>
@@ -4728,9 +4777,52 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>258967</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01 Aug 2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>917</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1599</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1108</v>
+      </c>
+      <c r="E8" t="n">
+        <v>320</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>257170</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>3952</v>
       </c>
     </row>
@@ -4745,7 +4837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4833,294 +4925,343 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08 Aug 2024</t>
+          <t>09 Aug 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-92</v>
+        <v>-7</v>
       </c>
       <c r="C2" t="n">
-        <v>-1489</v>
+        <v>-1941</v>
       </c>
       <c r="D2" t="n">
-        <v>1303</v>
+        <v>-3452</v>
       </c>
       <c r="E2" t="n">
-        <v>1408</v>
+        <v>956</v>
       </c>
       <c r="F2" t="n">
-        <v>1086</v>
+        <v>-407</v>
       </c>
       <c r="G2" t="n">
-        <v>502</v>
+        <v>915</v>
       </c>
       <c r="H2" t="n">
-        <v>310</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>-12</v>
       </c>
       <c r="J2" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>386</v>
+        <v>158</v>
       </c>
       <c r="L2" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N2" t="n">
-        <v>793089</v>
+        <v>789408</v>
       </c>
       <c r="O2" t="n">
-        <v>3561</v>
+        <v>-3681</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07 Aug 2024</t>
+          <t>08 Aug 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-61</v>
+        <v>-92</v>
       </c>
       <c r="C3" t="n">
-        <v>-919</v>
+        <v>-1489</v>
       </c>
       <c r="D3" t="n">
-        <v>-983</v>
+        <v>1303</v>
       </c>
       <c r="E3" t="n">
-        <v>2251</v>
+        <v>1408</v>
       </c>
       <c r="F3" t="n">
-        <v>1135</v>
+        <v>1086</v>
       </c>
       <c r="G3" t="n">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="H3" t="n">
-        <v>733</v>
+        <v>310</v>
       </c>
       <c r="I3" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>-3</v>
+        <v>61</v>
       </c>
       <c r="K3" t="n">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>789528</v>
+        <v>793089</v>
       </c>
       <c r="O3" t="n">
-        <v>2696</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06 Aug 2024</t>
+          <t>07 Aug 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-550</v>
+        <v>-61</v>
       </c>
       <c r="C4" t="n">
-        <v>-96</v>
+        <v>-919</v>
       </c>
       <c r="D4" t="n">
-        <v>-2229</v>
+        <v>-983</v>
       </c>
       <c r="E4" t="n">
-        <v>-81</v>
+        <v>2251</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>1135</v>
       </c>
       <c r="G4" t="n">
-        <v>500</v>
+        <v>434</v>
       </c>
       <c r="H4" t="n">
-        <v>1263</v>
+        <v>733</v>
       </c>
       <c r="I4" t="n">
-        <v>-6</v>
+        <v>65</v>
       </c>
       <c r="J4" t="n">
-        <v>34</v>
+        <v>-3</v>
       </c>
       <c r="K4" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
         <v>-1</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>786832</v>
+        <v>789528</v>
       </c>
       <c r="O4" t="n">
-        <v>-1034</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05 Aug 2024</t>
+          <t>06 Aug 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-48</v>
+        <v>-550</v>
       </c>
       <c r="C5" t="n">
-        <v>-291</v>
+        <v>-96</v>
       </c>
       <c r="D5" t="n">
-        <v>-9384</v>
+        <v>-2229</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>-81</v>
       </c>
       <c r="F5" t="n">
-        <v>-1755</v>
+        <v>34</v>
       </c>
       <c r="G5" t="n">
-        <v>1358</v>
+        <v>500</v>
       </c>
       <c r="H5" t="n">
-        <v>1587</v>
+        <v>1263</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="J5" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="K5" t="n">
-        <v>-107</v>
+        <v>96</v>
       </c>
       <c r="L5" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>787866</v>
+        <v>786832</v>
       </c>
       <c r="O5" t="n">
-        <v>-8567</v>
+        <v>-1034</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02 Aug 2024</t>
+          <t>05 Aug 2024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-296</v>
+        <v>-48</v>
       </c>
       <c r="C6" t="n">
-        <v>483</v>
+        <v>-291</v>
       </c>
       <c r="D6" t="n">
-        <v>-3658</v>
+        <v>-9384</v>
       </c>
       <c r="E6" t="n">
-        <v>-1506</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>584</v>
+        <v>-1755</v>
       </c>
       <c r="G6" t="n">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="H6" t="n">
-        <v>1969</v>
+        <v>1587</v>
       </c>
       <c r="I6" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>-6</v>
+        <v>72</v>
       </c>
       <c r="K6" t="n">
-        <v>164</v>
+        <v>-107</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>-10</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>796433</v>
+        <v>787866</v>
       </c>
       <c r="O6" t="n">
-        <v>-869</v>
+        <v>-8567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02 Aug 2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-296</v>
+      </c>
+      <c r="C7" t="n">
+        <v>483</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3658</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1506</v>
+      </c>
+      <c r="F7" t="n">
+        <v>584</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1359</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1969</v>
+      </c>
+      <c r="I7" t="n">
+        <v>31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>164</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>796433</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-869</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>01 Aug 2024</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>-667</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1618</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1842</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>1505</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>-69</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>420</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>1241</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>7</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>-143</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>-3</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>797302</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>5793</v>
       </c>
     </row>
@@ -5135,7 +5276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5223,294 +5364,343 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08 Aug 2024</t>
+          <t>09 Aug 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-177</v>
+        <v>-109</v>
       </c>
       <c r="C2" t="n">
-        <v>-2648</v>
+        <v>-2521</v>
       </c>
       <c r="D2" t="n">
-        <v>-28</v>
+        <v>-976</v>
       </c>
       <c r="E2" t="n">
-        <v>-439</v>
+        <v>-251</v>
       </c>
       <c r="F2" t="n">
-        <v>-256</v>
+        <v>-607</v>
       </c>
       <c r="G2" t="n">
-        <v>806</v>
+        <v>757</v>
       </c>
       <c r="H2" t="n">
-        <v>453</v>
+        <v>836</v>
       </c>
       <c r="I2" t="n">
-        <v>268</v>
+        <v>397</v>
       </c>
       <c r="J2" t="n">
-        <v>98</v>
+        <v>-60</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="M2" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="N2" t="n">
-        <v>512493</v>
+        <v>510354</v>
       </c>
       <c r="O2" t="n">
-        <v>-1757</v>
+        <v>-2139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07 Aug 2024</t>
+          <t>08 Aug 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-324</v>
+        <v>-177</v>
       </c>
       <c r="C3" t="n">
-        <v>-2247</v>
+        <v>-2648</v>
       </c>
       <c r="D3" t="n">
-        <v>627</v>
+        <v>-28</v>
       </c>
       <c r="E3" t="n">
-        <v>-3146</v>
+        <v>-439</v>
       </c>
       <c r="F3" t="n">
-        <v>-21</v>
+        <v>-256</v>
       </c>
       <c r="G3" t="n">
-        <v>950</v>
+        <v>806</v>
       </c>
       <c r="H3" t="n">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="I3" t="n">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="J3" t="n">
         <v>98</v>
       </c>
       <c r="K3" t="n">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="L3" t="n">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="M3" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="N3" t="n">
-        <v>514250</v>
+        <v>512493</v>
       </c>
       <c r="O3" t="n">
-        <v>-3379</v>
+        <v>-1757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06 Aug 2024</t>
+          <t>07 Aug 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-664</v>
+        <v>-324</v>
       </c>
       <c r="C4" t="n">
-        <v>-2458</v>
+        <v>-2247</v>
       </c>
       <c r="D4" t="n">
-        <v>1285</v>
+        <v>627</v>
       </c>
       <c r="E4" t="n">
-        <v>-4482</v>
+        <v>-3146</v>
       </c>
       <c r="F4" t="n">
-        <v>404</v>
+        <v>-21</v>
       </c>
       <c r="G4" t="n">
-        <v>1017</v>
+        <v>950</v>
       </c>
       <c r="H4" t="n">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="I4" t="n">
-        <v>1004</v>
+        <v>144</v>
       </c>
       <c r="J4" t="n">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="L4" t="n">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="M4" t="n">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="N4" t="n">
-        <v>517629</v>
+        <v>514250</v>
       </c>
       <c r="O4" t="n">
-        <v>-3437</v>
+        <v>-3379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05 Aug 2024</t>
+          <t>06 Aug 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-870</v>
+        <v>-664</v>
       </c>
       <c r="C5" t="n">
-        <v>-709</v>
+        <v>-2458</v>
       </c>
       <c r="D5" t="n">
-        <v>225</v>
+        <v>1285</v>
       </c>
       <c r="E5" t="n">
-        <v>-7513</v>
+        <v>-4482</v>
       </c>
       <c r="F5" t="n">
-        <v>-825</v>
+        <v>404</v>
       </c>
       <c r="G5" t="n">
-        <v>362</v>
+        <v>1017</v>
       </c>
       <c r="H5" t="n">
-        <v>550</v>
+        <v>243</v>
       </c>
       <c r="I5" t="n">
-        <v>410</v>
+        <v>1004</v>
       </c>
       <c r="J5" t="n">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M5" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N5" t="n">
-        <v>521066</v>
+        <v>517629</v>
       </c>
       <c r="O5" t="n">
-        <v>-8312</v>
+        <v>-3437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02 Aug 2024</t>
+          <t>05 Aug 2024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831</v>
+        <v>-870</v>
       </c>
       <c r="C6" t="n">
-        <v>283</v>
+        <v>-709</v>
       </c>
       <c r="D6" t="n">
-        <v>889</v>
+        <v>225</v>
       </c>
       <c r="E6" t="n">
-        <v>3769</v>
+        <v>-7513</v>
       </c>
       <c r="F6" t="n">
-        <v>390</v>
+        <v>-825</v>
       </c>
       <c r="G6" t="n">
-        <v>2470</v>
+        <v>362</v>
       </c>
       <c r="H6" t="n">
-        <v>913</v>
+        <v>550</v>
       </c>
       <c r="I6" t="n">
-        <v>479</v>
+        <v>410</v>
       </c>
       <c r="J6" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>529378</v>
+        <v>521066</v>
       </c>
       <c r="O6" t="n">
-        <v>8468</v>
+        <v>-8312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02 Aug 2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-831</v>
+      </c>
+      <c r="C7" t="n">
+        <v>283</v>
+      </c>
+      <c r="D7" t="n">
+        <v>889</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3769</v>
+      </c>
+      <c r="F7" t="n">
+        <v>390</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2470</v>
+      </c>
+      <c r="H7" t="n">
+        <v>913</v>
+      </c>
+      <c r="I7" t="n">
+        <v>479</v>
+      </c>
+      <c r="J7" t="n">
+        <v>57</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>35</v>
+      </c>
+      <c r="N7" t="n">
+        <v>529378</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>01 Aug 2024</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>-1163</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>147</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>82</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>5641</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>320</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>938</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>393</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>557</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>216</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>24</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>110</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>85</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>520910</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>7358</v>
       </c>
     </row>
@@ -5525,7 +5715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5613,294 +5803,343 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08 Aug 2024</t>
+          <t>09 Aug 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-36</v>
+        <v>-90</v>
       </c>
       <c r="C2" t="n">
-        <v>-735</v>
+        <v>-1981</v>
       </c>
       <c r="D2" t="n">
-        <v>-409</v>
+        <v>-1162</v>
       </c>
       <c r="E2" t="n">
-        <v>-281</v>
+        <v>-1528</v>
       </c>
       <c r="F2" t="n">
-        <v>258</v>
+        <v>-52</v>
       </c>
       <c r="G2" t="n">
-        <v>-452</v>
+        <v>-440</v>
       </c>
       <c r="H2" t="n">
-        <v>765</v>
+        <v>712</v>
       </c>
       <c r="I2" t="n">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K2" t="n">
-        <v>187</v>
+        <v>65</v>
       </c>
       <c r="L2" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="M2" t="n">
-        <v>-81</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>550003</v>
+        <v>545688</v>
       </c>
       <c r="O2" t="n">
-        <v>-512</v>
+        <v>-4315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07 Aug 2024</t>
+          <t>08 Aug 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-167</v>
+        <v>-36</v>
       </c>
       <c r="C3" t="n">
-        <v>-2526</v>
+        <v>-735</v>
       </c>
       <c r="D3" t="n">
-        <v>1556</v>
+        <v>-409</v>
       </c>
       <c r="E3" t="n">
-        <v>2382</v>
+        <v>-281</v>
       </c>
       <c r="F3" t="n">
-        <v>-928</v>
+        <v>258</v>
       </c>
       <c r="G3" t="n">
-        <v>-1212</v>
+        <v>-452</v>
       </c>
       <c r="H3" t="n">
-        <v>282</v>
+        <v>765</v>
       </c>
       <c r="I3" t="n">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="J3" t="n">
-        <v>-43</v>
+        <v>56</v>
       </c>
       <c r="K3" t="n">
-        <v>-2</v>
+        <v>187</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>-81</v>
       </c>
       <c r="N3" t="n">
-        <v>550515</v>
+        <v>550003</v>
       </c>
       <c r="O3" t="n">
-        <v>-272</v>
+        <v>-512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06 Aug 2024</t>
+          <t>07 Aug 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-105</v>
+        <v>-167</v>
       </c>
       <c r="C4" t="n">
-        <v>-471</v>
+        <v>-2526</v>
       </c>
       <c r="D4" t="n">
-        <v>-1091</v>
+        <v>1556</v>
       </c>
       <c r="E4" t="n">
-        <v>-760</v>
+        <v>2382</v>
       </c>
       <c r="F4" t="n">
-        <v>-638</v>
+        <v>-928</v>
       </c>
       <c r="G4" t="n">
-        <v>618</v>
+        <v>-1212</v>
       </c>
       <c r="H4" t="n">
-        <v>907</v>
+        <v>282</v>
       </c>
       <c r="I4" t="n">
-        <v>594</v>
+        <v>373</v>
       </c>
       <c r="J4" t="n">
-        <v>95</v>
+        <v>-43</v>
       </c>
       <c r="K4" t="n">
-        <v>116</v>
+        <v>-2</v>
       </c>
       <c r="L4" t="n">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>550787</v>
+        <v>550515</v>
       </c>
       <c r="O4" t="n">
-        <v>-564</v>
+        <v>-272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05 Aug 2024</t>
+          <t>06 Aug 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-12</v>
+        <v>-105</v>
       </c>
       <c r="C5" t="n">
-        <v>-5060</v>
+        <v>-471</v>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>-1091</v>
       </c>
       <c r="E5" t="n">
-        <v>-2847</v>
+        <v>-760</v>
       </c>
       <c r="F5" t="n">
-        <v>-1788</v>
+        <v>-638</v>
       </c>
       <c r="G5" t="n">
-        <v>-161</v>
+        <v>618</v>
       </c>
       <c r="H5" t="n">
-        <v>556</v>
+        <v>907</v>
       </c>
       <c r="I5" t="n">
-        <v>389</v>
+        <v>594</v>
       </c>
       <c r="J5" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K5" t="n">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="L5" t="n">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="M5" t="n">
-        <v>-190</v>
+        <v>61</v>
       </c>
       <c r="N5" t="n">
-        <v>551351</v>
+        <v>550787</v>
       </c>
       <c r="O5" t="n">
-        <v>-8769</v>
+        <v>-564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02 Aug 2024</t>
+          <t>05 Aug 2024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>-12</v>
       </c>
       <c r="C6" t="n">
-        <v>2524</v>
+        <v>-5060</v>
       </c>
       <c r="D6" t="n">
-        <v>1012</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>1526</v>
+        <v>-2847</v>
       </c>
       <c r="F6" t="n">
-        <v>642</v>
+        <v>-1788</v>
       </c>
       <c r="G6" t="n">
-        <v>1355</v>
+        <v>-161</v>
       </c>
       <c r="H6" t="n">
-        <v>931</v>
+        <v>556</v>
       </c>
       <c r="I6" t="n">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="J6" t="n">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K6" t="n">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="L6" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>94</v>
+        <v>-190</v>
       </c>
       <c r="N6" t="n">
-        <v>560120</v>
+        <v>551351</v>
       </c>
       <c r="O6" t="n">
-        <v>8705</v>
+        <v>-8769</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02 Aug 2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2524</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1012</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1526</v>
+      </c>
+      <c r="F7" t="n">
+        <v>642</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1355</v>
+      </c>
+      <c r="H7" t="n">
+        <v>931</v>
+      </c>
+      <c r="I7" t="n">
+        <v>295</v>
+      </c>
+      <c r="J7" t="n">
+        <v>41</v>
+      </c>
+      <c r="K7" t="n">
+        <v>173</v>
+      </c>
+      <c r="L7" t="n">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>94</v>
+      </c>
+      <c r="N7" t="n">
+        <v>560120</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>01 Aug 2024</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>-232</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>-5305</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>-643</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>-2911</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>103</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>493</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>619</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>103</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>72</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>31</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>7</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>39</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>551415</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>-7624</v>
       </c>
     </row>
@@ -5915,7 +6154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5993,32 +6232,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08 Aug 2024</t>
+          <t>09 Aug 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-12378</v>
+        <v>-14296</v>
       </c>
       <c r="C2" t="n">
-        <v>-230</v>
+        <v>5313</v>
       </c>
       <c r="D2" t="n">
-        <v>2826</v>
+        <v>1649</v>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>419</v>
       </c>
       <c r="F2" t="n">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="G2" t="n">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="H2" t="n">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -6027,41 +6266,41 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>414959</v>
+        <v>408598</v>
       </c>
       <c r="M2" t="n">
-        <v>-8190</v>
+        <v>-6361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07 Aug 2024</t>
+          <t>08 Aug 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-10478</v>
+        <v>-12378</v>
       </c>
       <c r="C3" t="n">
-        <v>-791</v>
+        <v>-230</v>
       </c>
       <c r="D3" t="n">
-        <v>1465</v>
+        <v>2826</v>
       </c>
       <c r="E3" t="n">
-        <v>998</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>233</v>
       </c>
       <c r="G3" t="n">
-        <v>-9</v>
+        <v>46</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6070,41 +6309,41 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>423149</v>
+        <v>414959</v>
       </c>
       <c r="M3" t="n">
-        <v>-8398</v>
+        <v>-8190</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06 Aug 2024</t>
+          <t>07 Aug 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-3407</v>
+        <v>-10478</v>
       </c>
       <c r="C4" t="n">
-        <v>-1496</v>
+        <v>-791</v>
       </c>
       <c r="D4" t="n">
-        <v>459</v>
+        <v>1465</v>
       </c>
       <c r="E4" t="n">
-        <v>-57</v>
+        <v>998</v>
       </c>
       <c r="F4" t="n">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>-9</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6113,41 +6352,41 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>431547</v>
+        <v>423149</v>
       </c>
       <c r="M4" t="n">
-        <v>-4019</v>
+        <v>-8398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05 Aug 2024</t>
+          <t>06 Aug 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4820</v>
+        <v>-3407</v>
       </c>
       <c r="C5" t="n">
-        <v>422</v>
+        <v>-1496</v>
       </c>
       <c r="D5" t="n">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="E5" t="n">
-        <v>161</v>
+        <v>-57</v>
       </c>
       <c r="F5" t="n">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G5" t="n">
-        <v>-45</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -6156,41 +6395,41 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>435566</v>
+        <v>431547</v>
       </c>
       <c r="M5" t="n">
-        <v>-3410</v>
+        <v>-4019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02 Aug 2024</t>
+          <t>05 Aug 2024</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3078</v>
+        <v>-4820</v>
       </c>
       <c r="C6" t="n">
-        <v>2270</v>
+        <v>422</v>
       </c>
       <c r="D6" t="n">
-        <v>-118</v>
+        <v>384</v>
       </c>
       <c r="E6" t="n">
-        <v>-7</v>
+        <v>161</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>458</v>
       </c>
       <c r="G6" t="n">
-        <v>-31</v>
+        <v>-45</v>
       </c>
       <c r="H6" t="n">
-        <v>-52</v>
+        <v>-2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -6199,52 +6438,95 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>438976</v>
+        <v>435566</v>
       </c>
       <c r="M6" t="n">
-        <v>-996</v>
+        <v>-3410</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>02 Aug 2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-3078</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2270</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-31</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-52</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>438976</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-996</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>01 Aug 2024</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>1485</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2881</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>350</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E8" t="n">
         <v>398</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>-9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>39</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>18</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>439972</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>5173</v>
       </c>
     </row>
@@ -6259,7 +6541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6342,38 +6624,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9 Aug 2024</t>
+          <t>12 Aug 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-108338</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-227626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-76398</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-43996</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-12822</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-10687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-232</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -6382,32 +6664,32 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>480126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8 Aug 2024</t>
+          <t>9 Aug 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-11321</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5059</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>889</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>399</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -6434,26 +6716,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7 Aug 2024</t>
+          <t>8 Aug 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5188</v>
+        <v>-11321</v>
       </c>
       <c r="C4" t="n">
-        <v>5729</v>
+        <v>5059</v>
       </c>
       <c r="D4" t="n">
-        <v>-577</v>
+        <v>889</v>
       </c>
       <c r="E4" t="n">
-        <v>620</v>
+        <v>-74</v>
       </c>
       <c r="F4" t="n">
-        <v>725</v>
+        <v>399</v>
       </c>
       <c r="G4" t="n">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -6474,32 +6756,32 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>484853</v>
+        <v>480126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6 Aug 2024</t>
+          <t>7 Aug 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1523</v>
+        <v>-5188</v>
       </c>
       <c r="C5" t="n">
-        <v>6317</v>
+        <v>5729</v>
       </c>
       <c r="D5" t="n">
-        <v>-128</v>
+        <v>-577</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>620</v>
       </c>
       <c r="F5" t="n">
-        <v>318</v>
+        <v>725</v>
       </c>
       <c r="G5" t="n">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -6520,52 +6802,98 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>483263</v>
+        <v>484853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>6 Aug 2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1523</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6317</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-128</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34</v>
+      </c>
+      <c r="F6" t="n">
+        <v>318</v>
+      </c>
+      <c r="G6" t="n">
+        <v>321</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>483263</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>5 Aug 2024</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>731</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G7" t="n">
         <v>945</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>477924</v>
       </c>
     </row>
@@ -6580,7 +6908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6653,26 +6981,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9 Aug 2024</t>
+          <t>12 Aug 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-66043</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-30118</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-9637</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-2257</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -6687,26 +7015,26 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8 Aug 2024</t>
+          <t>9 Aug 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-345</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6733,26 +7061,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7 Aug 2024</t>
+          <t>8 Aug 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>881</v>
+        <v>-345</v>
       </c>
       <c r="C4" t="n">
-        <v>1028</v>
+        <v>740</v>
       </c>
       <c r="D4" t="n">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>-200</v>
+        <v>61</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -6767,46 +7095,86 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>107649</v>
+        <v>108121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>7 Aug 2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>881</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1028</v>
+      </c>
+      <c r="D5" t="n">
+        <v>267</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-200</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>107649</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>6 Aug 2024</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>-645</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>516</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>-176</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>238</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>105665</v>
       </c>
     </row>
